--- a/data/hotels_by_city/Houston/Houston_shard_128.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_128.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="423">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56780-d816814-Reviews-Comfort_Suites_Tomball-Tomball_Texas.html</t>
   </si>
   <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Conroe-Hotels-Comfort-Suites.h1832354.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1158 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r527656104-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>56780</t>
+  </si>
+  <si>
+    <t>816814</t>
+  </si>
+  <si>
+    <t>527656104</t>
+  </si>
+  <si>
+    <t>09/26/2017</t>
+  </si>
+  <si>
+    <t>UNPLEASANT</t>
+  </si>
+  <si>
+    <t>Entering the hotel lobby, there's a stale odor of mildew. The front desk manager was rude. The establishment seems rundown and in despair. Renovations are needed, furniture is old, carpet is dirty &amp; dated, internet did not work, limited tv channels &amp; bad reception, and the hallways have trash and live roaches running around. The bed is extremely uncomfortable. There were live active bugs present on the breakfast buffet. Also, the parking is terrible. This place truly needs some TLC.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Comfort S, General Manager at Comfort Suites Tomball, responded to this reviewResponded December 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2017</t>
+  </si>
+  <si>
+    <t>Entering the hotel lobby, there's a stale odor of mildew. The front desk manager was rude. The establishment seems rundown and in despair. Renovations are needed, furniture is old, carpet is dirty &amp; dated, internet did not work, limited tv channels &amp; bad reception, and the hallways have trash and live roaches running around. The bed is extremely uncomfortable. There were live active bugs present on the breakfast buffet. Also, the parking is terrible. This place truly needs some TLC.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r503225414-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>503225414</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Absolute WORST hotel</t>
+  </si>
+  <si>
+    <t>My family and I checked in late Friday night got out room key and went up to the third floor to be greeted by the strong smell of marijuana. We were moved to second room and I noticed a bug bug which resembled a flying ant and I killed it. About 3 hours of sleep I woke up went to the restroom returned to the bed only to noticed that it was literally covered with these bugs!  I got up called Priceline, packed my things, I waited on Priceline to call back after speaking to the manager. The manager seemed as though she had prior knowledge of the issue.  I was issued a full refund but needless to say I am still totally grossed out and traumatized by the entire situation.  WORSE hotel ever!!!! I will never stay in another comfort suites 2.5 star again!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>My family and I checked in late Friday night got out room key and went up to the third floor to be greeted by the strong smell of marijuana. We were moved to second room and I noticed a bug bug which resembled a flying ant and I killed it. About 3 hours of sleep I woke up went to the restroom returned to the bed only to noticed that it was literally covered with these bugs!  I got up called Priceline, packed my things, I waited on Priceline to call back after speaking to the manager. The manager seemed as though she had prior knowledge of the issue.  I was issued a full refund but needless to say I am still totally grossed out and traumatized by the entire situation.  WORSE hotel ever!!!! I will never stay in another comfort suites 2.5 star again!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r491973431-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>491973431</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t>We May Come Back....</t>
+  </si>
+  <si>
+    <t>There were more positives than negatives with our stay, which is why this hotel got a 4 and not a 3. I traveled with my older 2 boys(ages 20 and 15). We had a room with 2 queen beds and a sofa bed. Check-in was quick and the clerk was friendly enough. The indoor pool was a big plus. It was clean and my sons told me the water was cold, but they enjoyed the pool and hot tub anyway. The room was large enough and the beds were comfortable. The pillows were not that good, but we usually bring our own, so no big deal. The biggest negative about the room was that the AC did not cool well. I reported this to the front desk and was told to put it on 62 degrees. The room did not cool to even 72 degrees at any point, but we were able to deal with it and sleep. My concern is that my husband who likes it very cold would likely not be comfortable here. The microwave needed to be wiped out, so I did and the fridge was sticky and did not cool too well. I had a travel ice-chest, so the fridge issue was solved, but it was disappointing because I expected a fully-working fridge and AC and did not get what I paid for in those areas. I also used guest laundry and found it barely adequate....There were more positives than negatives with our stay, which is why this hotel got a 4 and not a 3. I traveled with my older 2 boys(ages 20 and 15). We had a room with 2 queen beds and a sofa bed. Check-in was quick and the clerk was friendly enough. The indoor pool was a big plus. It was clean and my sons told me the water was cold, but they enjoyed the pool and hot tub anyway. The room was large enough and the beds were comfortable. The pillows were not that good, but we usually bring our own, so no big deal. The biggest negative about the room was that the AC did not cool well. I reported this to the front desk and was told to put it on 62 degrees. The room did not cool to even 72 degrees at any point, but we were able to deal with it and sleep. My concern is that my husband who likes it very cold would likely not be comfortable here. The microwave needed to be wiped out, so I did and the fridge was sticky and did not cool too well. I had a travel ice-chest, so the fridge issue was solved, but it was disappointing because I expected a fully-working fridge and AC and did not get what I paid for in those areas. I also used guest laundry and found it barely adequate. The front desk ladies were kind enough to give me a few scoops of laundry detergent. The washer and dryer are coin-operated. I had to run the dryer twice on 2 loads and a 3rd time on one load because it is on its last leg. It was very noisy and did not dry well. The clothes did not smell too good either when I took them out and it was not because they were sitting in the laundry wet for long. I suggest they either repair the dryer or replace it. Luckily we were able to make do or I would have had to go find a laundromat(not convenient). The breakfast was very good. Only suggestion would be to serve scrambled eggs, not sunny side up and serve bacon more often or with the sausage. Housekeeping staff was okay. One staff member did not speak much English and did not seem to understand that I wanted both trash cans bags changed. She just look confused and gave me one huge trash bag. I did not make a big deal of it. Lana at the front desk was very nice and friendly to us and my sons told me that other clerks were also nice to them. The hotel is located near enough restaurants, fast food, grocery stores(HEB), movie theater, and a bowling alley. We may return to this location and if so, I hope the AC issue is cleared up. It would also help to have fully functional laundry facilities.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>There were more positives than negatives with our stay, which is why this hotel got a 4 and not a 3. I traveled with my older 2 boys(ages 20 and 15). We had a room with 2 queen beds and a sofa bed. Check-in was quick and the clerk was friendly enough. The indoor pool was a big plus. It was clean and my sons told me the water was cold, but they enjoyed the pool and hot tub anyway. The room was large enough and the beds were comfortable. The pillows were not that good, but we usually bring our own, so no big deal. The biggest negative about the room was that the AC did not cool well. I reported this to the front desk and was told to put it on 62 degrees. The room did not cool to even 72 degrees at any point, but we were able to deal with it and sleep. My concern is that my husband who likes it very cold would likely not be comfortable here. The microwave needed to be wiped out, so I did and the fridge was sticky and did not cool too well. I had a travel ice-chest, so the fridge issue was solved, but it was disappointing because I expected a fully-working fridge and AC and did not get what I paid for in those areas. I also used guest laundry and found it barely adequate....There were more positives than negatives with our stay, which is why this hotel got a 4 and not a 3. I traveled with my older 2 boys(ages 20 and 15). We had a room with 2 queen beds and a sofa bed. Check-in was quick and the clerk was friendly enough. The indoor pool was a big plus. It was clean and my sons told me the water was cold, but they enjoyed the pool and hot tub anyway. The room was large enough and the beds were comfortable. The pillows were not that good, but we usually bring our own, so no big deal. The biggest negative about the room was that the AC did not cool well. I reported this to the front desk and was told to put it on 62 degrees. The room did not cool to even 72 degrees at any point, but we were able to deal with it and sleep. My concern is that my husband who likes it very cold would likely not be comfortable here. The microwave needed to be wiped out, so I did and the fridge was sticky and did not cool too well. I had a travel ice-chest, so the fridge issue was solved, but it was disappointing because I expected a fully-working fridge and AC and did not get what I paid for in those areas. I also used guest laundry and found it barely adequate. The front desk ladies were kind enough to give me a few scoops of laundry detergent. The washer and dryer are coin-operated. I had to run the dryer twice on 2 loads and a 3rd time on one load because it is on its last leg. It was very noisy and did not dry well. The clothes did not smell too good either when I took them out and it was not because they were sitting in the laundry wet for long. I suggest they either repair the dryer or replace it. Luckily we were able to make do or I would have had to go find a laundromat(not convenient). The breakfast was very good. Only suggestion would be to serve scrambled eggs, not sunny side up and serve bacon more often or with the sausage. Housekeeping staff was okay. One staff member did not speak much English and did not seem to understand that I wanted both trash cans bags changed. She just look confused and gave me one huge trash bag. I did not make a big deal of it. Lana at the front desk was very nice and friendly to us and my sons told me that other clerks were also nice to them. The hotel is located near enough restaurants, fast food, grocery stores(HEB), movie theater, and a bowling alley. We may return to this location and if so, I hope the AC issue is cleared up. It would also help to have fully functional laundry facilities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r441012625-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>441012625</t>
+  </si>
+  <si>
+    <t>11/29/2016</t>
+  </si>
+  <si>
+    <t>Great value for the price</t>
+  </si>
+  <si>
+    <t>People said the hotel and rooms were smelly, but they weren't. Other guests said the AC was broken, but it was not. The lady at the desk was very professional. We were in town for a funeral so this was a perfect central location. Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Taufiq U, General Manager at Comfort Suites Tomball, responded to this reviewResponded December 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2016</t>
+  </si>
+  <si>
+    <t>People said the hotel and rooms were smelly, but they weren't. Other guests said the AC was broken, but it was not. The lady at the desk was very professional. We were in town for a funeral so this was a perfect central location. Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r440764413-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>440764413</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>Just what we hoped for.</t>
+  </si>
+  <si>
+    <t>We were in Tomball to attend the Texas Renaissance Festival. I was traveling with my two teenaged kids and we got a room with 2 queen beds, assuming my son would have to sleep on the floor. We were so delighted when we saw the room also came with a sofa bed. My only complaint was that the bedding for the sofa bed was not in the closet or anywhere else in the room. I had to go down to the lobby and ask for it, then lug it back to the room. Still, it was so nice to have that third bed!We had no complaints about the room. The breakfast was a pleasant surprise for someone who is a gluten-free diabetic. They had plenty of bacon and eggs, and yogurt and fruit in addition to the pastries and waffles, etc. We all ate a hearty and filling breakfast before heading out to the festival. I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Taufiq U, General Manager at Comfort Suites Tomball, responded to this reviewResponded November 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2016</t>
+  </si>
+  <si>
+    <t>We were in Tomball to attend the Texas Renaissance Festival. I was traveling with my two teenaged kids and we got a room with 2 queen beds, assuming my son would have to sleep on the floor. We were so delighted when we saw the room also came with a sofa bed. My only complaint was that the bedding for the sofa bed was not in the closet or anywhere else in the room. I had to go down to the lobby and ask for it, then lug it back to the room. Still, it was so nice to have that third bed!We had no complaints about the room. The breakfast was a pleasant surprise for someone who is a gluten-free diabetic. They had plenty of bacon and eggs, and yogurt and fruit in addition to the pastries and waffles, etc. We all ate a hearty and filling breakfast before heading out to the festival. I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r440369232-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>440369232</t>
+  </si>
+  <si>
+    <t>11/27/2016</t>
+  </si>
+  <si>
+    <t>I hope this hotel does not show on any searces</t>
+  </si>
+  <si>
+    <t>The only redeeming thing about this hotel was the breakfast and it was just ok.  I will not recommend this particular Comfort Suites hotel.  I've stayed at many different hotels and many different Comfort Suites.  This one should be  removed from all searches even on the Comfort Suites website.  The room was so humid and warm we put the AC on as cold as it could get and it didn't help.  The second floor hallway smells like body odor.  The back stairwell looked like time forgot it since the 60's.  The back door didn't lock and random people just came in and out.  The front desk girl had no personality or communication skills, but she did the minimum needed and I guess can't be faulted for that.  The pillows could be compared to bags of small rocks or bags of small amounts of tissue paper.  The bed should have been called a half pipe since the only support was the very side edges of the mattress.  The carpet was smelly.  I guess when the sheets were washed, they were washed with grey and black lint since they were full of grey and black lint.  The sheets did smell clean and feel clean though.  The bathroom was a bit and the dark side due to weak lighting.  We didn't sleep at all and refuse to ever go back to this Comfort Suites.  When we need to go back to this area,...The only redeeming thing about this hotel was the breakfast and it was just ok.  I will not recommend this particular Comfort Suites hotel.  I've stayed at many different hotels and many different Comfort Suites.  This one should be  removed from all searches even on the Comfort Suites website.  The room was so humid and warm we put the AC on as cold as it could get and it didn't help.  The second floor hallway smells like body odor.  The back stairwell looked like time forgot it since the 60's.  The back door didn't lock and random people just came in and out.  The front desk girl had no personality or communication skills, but she did the minimum needed and I guess can't be faulted for that.  The pillows could be compared to bags of small rocks or bags of small amounts of tissue paper.  The bed should have been called a half pipe since the only support was the very side edges of the mattress.  The carpet was smelly.  I guess when the sheets were washed, they were washed with grey and black lint since they were full of grey and black lint.  The sheets did smell clean and feel clean though.  The bathroom was a bit and the dark side due to weak lighting.  We didn't sleep at all and refuse to ever go back to this Comfort Suites.  When we need to go back to this area, we will sleep at another hotel.  I think any hotel would be better than this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>Taufiq U, General Manager at Comfort Suites Tomball, responded to this reviewResponded November 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2016</t>
+  </si>
+  <si>
+    <t>The only redeeming thing about this hotel was the breakfast and it was just ok.  I will not recommend this particular Comfort Suites hotel.  I've stayed at many different hotels and many different Comfort Suites.  This one should be  removed from all searches even on the Comfort Suites website.  The room was so humid and warm we put the AC on as cold as it could get and it didn't help.  The second floor hallway smells like body odor.  The back stairwell looked like time forgot it since the 60's.  The back door didn't lock and random people just came in and out.  The front desk girl had no personality or communication skills, but she did the minimum needed and I guess can't be faulted for that.  The pillows could be compared to bags of small rocks or bags of small amounts of tissue paper.  The bed should have been called a half pipe since the only support was the very side edges of the mattress.  The carpet was smelly.  I guess when the sheets were washed, they were washed with grey and black lint since they were full of grey and black lint.  The sheets did smell clean and feel clean though.  The bathroom was a bit and the dark side due to weak lighting.  We didn't sleep at all and refuse to ever go back to this Comfort Suites.  When we need to go back to this area,...The only redeeming thing about this hotel was the breakfast and it was just ok.  I will not recommend this particular Comfort Suites hotel.  I've stayed at many different hotels and many different Comfort Suites.  This one should be  removed from all searches even on the Comfort Suites website.  The room was so humid and warm we put the AC on as cold as it could get and it didn't help.  The second floor hallway smells like body odor.  The back stairwell looked like time forgot it since the 60's.  The back door didn't lock and random people just came in and out.  The front desk girl had no personality or communication skills, but she did the minimum needed and I guess can't be faulted for that.  The pillows could be compared to bags of small rocks or bags of small amounts of tissue paper.  The bed should have been called a half pipe since the only support was the very side edges of the mattress.  The carpet was smelly.  I guess when the sheets were washed, they were washed with grey and black lint since they were full of grey and black lint.  The sheets did smell clean and feel clean though.  The bathroom was a bit and the dark side due to weak lighting.  We didn't sleep at all and refuse to ever go back to this Comfort Suites.  When we need to go back to this area, we will sleep at another hotel.  I think any hotel would be better than this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r424812197-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>424812197</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>Last Minute Stay on Monday</t>
+  </si>
+  <si>
+    <t>We had to pop into town at the last minute for an event.  I think I booked about 24 hours before arrival.  I have a relative that lives in Cypress which is just down the road.  He told me that the few hotels in his area are higher end hotels.  I had already checked out of the Comfort Suites by that time and was glad I stayed here as it was only about 9 miles from where we had to be.  This hotel is not new and they were working on the main road by the hotel.  That being said we were very comfortable here.  The property was clean and the staff we met with we very nice.  Our room had plenty of room and the bed and pillows were just fine.  The vanity and bathroom were excellent too.  We arrived late and left about 9 am so we did not check on a pool or fitness but if I'm not mistaken there is an indoor pool and hot tub on 1st floor.  We were glad we chose Comfort Suites for our quick stay and also glad we did not choose to pay nearly double the rate to stay in a nicer newer property.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Taufiq U, General Manager at Comfort Suites Tomball, responded to this reviewResponded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2016</t>
+  </si>
+  <si>
+    <t>We had to pop into town at the last minute for an event.  I think I booked about 24 hours before arrival.  I have a relative that lives in Cypress which is just down the road.  He told me that the few hotels in his area are higher end hotels.  I had already checked out of the Comfort Suites by that time and was glad I stayed here as it was only about 9 miles from where we had to be.  This hotel is not new and they were working on the main road by the hotel.  That being said we were very comfortable here.  The property was clean and the staff we met with we very nice.  Our room had plenty of room and the bed and pillows were just fine.  The vanity and bathroom were excellent too.  We arrived late and left about 9 am so we did not check on a pool or fitness but if I'm not mistaken there is an indoor pool and hot tub on 1st floor.  We were glad we chose Comfort Suites for our quick stay and also glad we did not choose to pay nearly double the rate to stay in a nicer newer property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r420505889-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>420505889</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Just stayed here this past weekend and was very satisfied with my experience. Nice staff, clean room, and convenient. From check in to check out the staff was friendly, attentive, and thoughtful. I was in town for a wedding and had a chance to enjoy the pool as well! Will stay here again next time I'm in town.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Just stayed here this past weekend and was very satisfied with my experience. Nice staff, clean room, and convenient. From check in to check out the staff was friendly, attentive, and thoughtful. I was in town for a wedding and had a chance to enjoy the pool as well! Will stay here again next time I'm in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r415906192-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>415906192</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>This hotel was very disappointing. It was dirty and smelly.   The bed and pillows were not comfortable. The air did not cool down the room until 1 am. I will not stay here again. The lotion had been used. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This hotel was very disappointing. It was dirty and smelly.   The bed and pillows were not comfortable. The air did not cool down the room until 1 am. I will not stay here again. The lotion had been used. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r408026601-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>408026601</t>
+  </si>
+  <si>
+    <t>08/20/2016</t>
+  </si>
+  <si>
+    <t>Awesome stay</t>
+  </si>
+  <si>
+    <t>This hotel and rooms are clean and the staff was friendly and accommodating. They offer free breakfast and are knowledgeable on the area, offering suggestions for dining and attractions. I had an excellent visit and will definitely be back. I would recommend this hotel to anyone in the area! Great value and location! MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Umer U, Guest Relations Manager at Comfort Suites Tomball, responded to this reviewResponded August 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2016</t>
+  </si>
+  <si>
+    <t>This hotel and rooms are clean and the staff was friendly and accommodating. They offer free breakfast and are knowledgeable on the area, offering suggestions for dining and attractions. I had an excellent visit and will definitely be back. I would recommend this hotel to anyone in the area! Great value and location! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r407454305-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>407454305</t>
+  </si>
+  <si>
+    <t>08/19/2016</t>
+  </si>
+  <si>
+    <t>Defines the Southern Hospitality</t>
+  </si>
+  <si>
+    <t>First time in Texas and I must say this place welcomed us with both arms. The staff was friendly and helped out in suggested the best attractions close by. The services was flawless and always greeted us with a smile. I thoroughly enjoyed my stay and would defiantly come back for an extended stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>First time in Texas and I must say this place welcomed us with both arms. The staff was friendly and helped out in suggested the best attractions close by. The services was flawless and always greeted us with a smile. I thoroughly enjoyed my stay and would defiantly come back for an extended stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r402884909-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>402884909</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>Loved our stay</t>
+  </si>
+  <si>
+    <t>We stayed here just short of two weeks for a working vacation. It was a wonderful place to stay. Close to many attractions, and if you love antiques, this is the spot.  It's kind of back from the road so it was nice and quiet. The employees were extremely nice, enjoyed talking with them. Would definitely go back for another extended stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here just short of two weeks for a working vacation. It was a wonderful place to stay. Close to many attractions, and if you love antiques, this is the spot.  It's kind of back from the road so it was nice and quiet. The employees were extremely nice, enjoyed talking with them. Would definitely go back for another extended stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r384746339-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>384746339</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfortable and Friendly </t>
+  </si>
+  <si>
+    <t>My husband and I  stayed here one night on trip to visit family in the area. The staff were friendly. The room comfortable.  We had king bed. The room had medium small refrigerator, microwave, and coffee maker. I was happy to see a decaf tea bag,as I stay away from caffeine.  Breakfast area was clean and neat. We did not eat there due to time constraint on our part. Would stay again. Pool small, with small hot tub area in in the corner of the pool. We did not use the pool, but one is available. Very acceptable accommodations. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>My husband and I  stayed here one night on trip to visit family in the area. The staff were friendly. The room comfortable.  We had king bed. The room had medium small refrigerator, microwave, and coffee maker. I was happy to see a decaf tea bag,as I stay away from caffeine.  Breakfast area was clean and neat. We did not eat there due to time constraint on our part. Would stay again. Pool small, with small hot tub area in in the corner of the pool. We did not use the pool, but one is available. Very acceptable accommodations. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r374205836-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>374205836</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Wedding</t>
+  </si>
+  <si>
+    <t>The lady that checked us in was awesome!  One of the most courteous and helpful people I have had the pleasure to deal with in a long time.  She is the only reason I gave them a 3.  For the price you pay the breakfast was very lacking.  If you just need a place to sleep then would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>The lady that checked us in was awesome!  One of the most courteous and helpful people I have had the pleasure to deal with in a long time.  She is the only reason I gave them a 3.  For the price you pay the breakfast was very lacking.  If you just need a place to sleep then would recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r362408661-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>362408661</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>HAPPY all around!</t>
+  </si>
+  <si>
+    <t>Absolutely nice stay.  This location is right off a major road but tucked back, so that you do not hear the traffic.  There are plenty of shops and restaurants nearby.  Everything was clean and fresh.  Check in was easy and my room was just what I wanted.  I will be staying here again, whenever I am in town for business.  It is always refreshing to stay somewhere that appreciates your business.  I am a Choice Platinum and this hotel was perfect for me!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Absolutely nice stay.  This location is right off a major road but tucked back, so that you do not hear the traffic.  There are plenty of shops and restaurants nearby.  Everything was clean and fresh.  Check in was easy and my room was just what I wanted.  I will be staying here again, whenever I am in town for business.  It is always refreshing to stay somewhere that appreciates your business.  I am a Choice Platinum and this hotel was perfect for me!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r322634298-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>322634298</t>
+  </si>
+  <si>
+    <t>10/28/2015</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>My family recently stayed here as we prepared for a wedding in the area. The front desk staff was friendly, and the front desk/lobby area was nice. The rooms were clean and beds were comfortable. Our group was welcomed nicely by staff for our celebration, and they worked with us by letting us use the breakfast area (in the evening when it isn't in use) to allow or group some time to visit pre-wedding. There was a vending machine on our floor, but before I could go get a drink my husband and dad told me it was not working. This was my only negative complaint for the stay. Thanks for the great service and room!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Muhammad O, General Manager at Comfort Suites Tomball, responded to this reviewResponded October 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2015</t>
+  </si>
+  <si>
+    <t>My family recently stayed here as we prepared for a wedding in the area. The front desk staff was friendly, and the front desk/lobby area was nice. The rooms were clean and beds were comfortable. Our group was welcomed nicely by staff for our celebration, and they worked with us by letting us use the breakfast area (in the evening when it isn't in use) to allow or group some time to visit pre-wedding. There was a vending machine on our floor, but before I could go get a drink my husband and dad told me it was not working. This was my only negative complaint for the stay. Thanks for the great service and room!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r320859330-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>320859330</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Cheap, clean and nice</t>
+  </si>
+  <si>
+    <t>The room was clean and nice. No proper facilities for eating, and poor breakfast, but the hotel was localised close to restaurants and coffee shops. I enjoyed my stay and can recommend the hotel for a short stay in Tomball.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Muhammad O, General Manager at Comfort Suites Tomball, responded to this reviewResponded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2015</t>
+  </si>
+  <si>
+    <t>The room was clean and nice. No proper facilities for eating, and poor breakfast, but the hotel was localised close to restaurants and coffee shops. I enjoyed my stay and can recommend the hotel for a short stay in Tomball.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r318793488-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>318793488</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Clean and accessible</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights on a recent visit to the Tomball area.  Needed a handicap accessible room for my mom, who uses a walker or wheel chair.  For some reason despite reserving a handicap room every time through choice hotels, I have to remind the desk clerk at check in.  Room was clean and very handicap accessible, including a walk or roll in shower area.  The breakfast was the worst on the trip and inedible.  Room was cleaned each day and the staff was very helpful.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Muhammad O, General Manager at Comfort Suites Tomball, responded to this reviewResponded October 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights on a recent visit to the Tomball area.  Needed a handicap accessible room for my mom, who uses a walker or wheel chair.  For some reason despite reserving a handicap room every time through choice hotels, I have to remind the desk clerk at check in.  Room was clean and very handicap accessible, including a walk or roll in shower area.  The breakfast was the worst on the trip and inedible.  Room was cleaned each day and the staff was very helpful.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r296414886-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>296414886</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>My husband and I stay at the Comfort Suites in Tomball, TX every Friday.  The rooms are always clean and the staff is just TERRIFIC!!!  Everyone is always willing to do whatever is needed for you to have a great stay with them.  We will continue to book at Comfort Suites in Tomball because it's like being home with someone else making your breakfast and cleaning for you.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Muhammad O, General Manager at Comfort Suites Tomball, responded to this reviewResponded August 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2015</t>
+  </si>
+  <si>
+    <t>My husband and I stay at the Comfort Suites in Tomball, TX every Friday.  The rooms are always clean and the staff is just TERRIFIC!!!  Everyone is always willing to do whatever is needed for you to have a great stay with them.  We will continue to book at Comfort Suites in Tomball because it's like being home with someone else making your breakfast and cleaning for you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r289348510-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>289348510</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Customer Service at it's Best</t>
+  </si>
+  <si>
+    <t>I had stayed in this hotel when it opened. I had a business meeting in this area, I booked room thro' Choice and added my points. It has a very spacious, clean room with a good breakfast in morning. I will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Muhammad O, General Manager at Comfort Suites Tomball, responded to this reviewResponded July 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2015</t>
+  </si>
+  <si>
+    <t>I had stayed in this hotel when it opened. I had a business meeting in this area, I booked room thro' Choice and added my points. It has a very spacious, clean room with a good breakfast in morning. I will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r283626863-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>283626863</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>Good hotel; needs some sprucing up</t>
+  </si>
+  <si>
+    <t>We stayed at the Comfort Suites in Tomball, Texas, this past weekend.  The staff is very friendly and helpful.  The rooms and linens were clean.  However, the property could use some sprucing up by corporate.MoreShow less</t>
+  </si>
+  <si>
+    <t>Muhammad O, General Manager at Comfort Suites Tomball, responded to this reviewResponded June 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at the Comfort Suites in Tomball, Texas, this past weekend.  The staff is very friendly and helpful.  The rooms and linens were clean.  However, the property could use some sprucing up by corporate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r249219069-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>249219069</t>
+  </si>
+  <si>
+    <t>01/13/2015</t>
+  </si>
+  <si>
+    <t>Mildew City</t>
+  </si>
+  <si>
+    <t>I would go out of the way to find another location.  My room reeked of mildew and the staff is less than accommodating.  There wasn't any internet service in the room so the desk agent told me to work from the lobby.  Huhhh?  This should be a 00 rating.   MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Muhammad O, General Manager at Comfort Suites Tomball, responded to this reviewResponded January 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2015</t>
+  </si>
+  <si>
+    <t>I would go out of the way to find another location.  My room reeked of mildew and the staff is less than accommodating.  There wasn't any internet service in the room so the desk agent told me to work from the lobby.  Huhhh?  This should be a 00 rating.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r240397619-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>240397619</t>
+  </si>
+  <si>
+    <t>11/18/2014</t>
+  </si>
+  <si>
+    <t>Hard to find, don't bother with sofabed</t>
+  </si>
+  <si>
+    <t>Finding this property in the dark was a challenge. The sign is on the building, which is hidden from the road from a brake repair company, and the lighting on the side street is non-existant. The building is nice, but nothing over the top, as to be expected. 
+I had called ahead to reconfirm two beds and a sofa bed, but upon pulling out the sofa, there were no linens, nor were there any in the room. A call down to the front desk stated that they didn't know if they could get them. One trip down to the desk by one of my traveling companions cleared that, but we had already been dressed for bed. The fact that they weren't in the room, nor could be sent up was very inconvenient. Not that is was that important. The bed was so uncomfortable (and quite ratty looking), that it was not used our second night, opting to sleep on the unfolded couch (Very cramped but still much more comfortable).
+Breakfast was nice for a complimentary offering, including the obligatory Choice hotels waffles, pastries, and fixing for sausage and gravy. They also had bacon, sausage, and pre-cooked egg rounds for folks who like breakfast sandwiches. Coffee hot, milk and juice cold. The breakfast room was well lit and clean. For the afternoon, Chips Ahoy cookies were placed out for guests.
+The staff was polite, room and bathroom clean. If you are...Finding this property in the dark was a challenge. The sign is on the building, which is hidden from the road from a brake repair company, and the lighting on the side street is non-existant. The building is nice, but nothing over the top, as to be expected. I had called ahead to reconfirm two beds and a sofa bed, but upon pulling out the sofa, there were no linens, nor were there any in the room. A call down to the front desk stated that they didn't know if they could get them. One trip down to the desk by one of my traveling companions cleared that, but we had already been dressed for bed. The fact that they weren't in the room, nor could be sent up was very inconvenient. Not that is was that important. The bed was so uncomfortable (and quite ratty looking), that it was not used our second night, opting to sleep on the unfolded couch (Very cramped but still much more comfortable).Breakfast was nice for a complimentary offering, including the obligatory Choice hotels waffles, pastries, and fixing for sausage and gravy. They also had bacon, sausage, and pre-cooked egg rounds for folks who like breakfast sandwiches. Coffee hot, milk and juice cold. The breakfast room was well lit and clean. For the afternoon, Chips Ahoy cookies were placed out for guests.The staff was polite, room and bathroom clean. If you are a family traveling, it is a good option.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Finding this property in the dark was a challenge. The sign is on the building, which is hidden from the road from a brake repair company, and the lighting on the side street is non-existant. The building is nice, but nothing over the top, as to be expected. 
+I had called ahead to reconfirm two beds and a sofa bed, but upon pulling out the sofa, there were no linens, nor were there any in the room. A call down to the front desk stated that they didn't know if they could get them. One trip down to the desk by one of my traveling companions cleared that, but we had already been dressed for bed. The fact that they weren't in the room, nor could be sent up was very inconvenient. Not that is was that important. The bed was so uncomfortable (and quite ratty looking), that it was not used our second night, opting to sleep on the unfolded couch (Very cramped but still much more comfortable).
+Breakfast was nice for a complimentary offering, including the obligatory Choice hotels waffles, pastries, and fixing for sausage and gravy. They also had bacon, sausage, and pre-cooked egg rounds for folks who like breakfast sandwiches. Coffee hot, milk and juice cold. The breakfast room was well lit and clean. For the afternoon, Chips Ahoy cookies were placed out for guests.
+The staff was polite, room and bathroom clean. If you are...Finding this property in the dark was a challenge. The sign is on the building, which is hidden from the road from a brake repair company, and the lighting on the side street is non-existant. The building is nice, but nothing over the top, as to be expected. I had called ahead to reconfirm two beds and a sofa bed, but upon pulling out the sofa, there were no linens, nor were there any in the room. A call down to the front desk stated that they didn't know if they could get them. One trip down to the desk by one of my traveling companions cleared that, but we had already been dressed for bed. The fact that they weren't in the room, nor could be sent up was very inconvenient. Not that is was that important. The bed was so uncomfortable (and quite ratty looking), that it was not used our second night, opting to sleep on the unfolded couch (Very cramped but still much more comfortable).Breakfast was nice for a complimentary offering, including the obligatory Choice hotels waffles, pastries, and fixing for sausage and gravy. They also had bacon, sausage, and pre-cooked egg rounds for folks who like breakfast sandwiches. Coffee hot, milk and juice cold. The breakfast room was well lit and clean. For the afternoon, Chips Ahoy cookies were placed out for guests.The staff was polite, room and bathroom clean. If you are a family traveling, it is a good option.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r234572113-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>234572113</t>
+  </si>
+  <si>
+    <t>10/15/2014</t>
+  </si>
+  <si>
+    <t>lovely but mildewed</t>
+  </si>
+  <si>
+    <t>Beautiful hotel; soft, comfortable beds; very spacious; indoor pool and spa; but obviously they have had a major water event recently as the entire first floor reeks of mildew and mustiness. The smell brought me right back to post-Hurricane Katrina New Orleans and my house percolating in flood waters for many weeks. I had allergies and migraines the whole trip. Thank God we stayed on the third floor. Our across the hall neighbors said they'd had to change their room because of the smell. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Muhammad O, Manager at Comfort Suites Tomball, responded to this reviewResponded October 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2014</t>
+  </si>
+  <si>
+    <t>Beautiful hotel; soft, comfortable beds; very spacious; indoor pool and spa; but obviously they have had a major water event recently as the entire first floor reeks of mildew and mustiness. The smell brought me right back to post-Hurricane Katrina New Orleans and my house percolating in flood waters for many weeks. I had allergies and migraines the whole trip. Thank God we stayed on the third floor. Our across the hall neighbors said they'd had to change their room because of the smell. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r208274501-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>208274501</t>
+  </si>
+  <si>
+    <t>05/31/2014</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>We stayed here for three nights while visiting my mother who had moved to a retirement center near here.Enjoyed our stay, although we were not there much.  Better than average Motel.  Everything worked.  Clean.  Large rooms.  A nice place to stay.Breakfast included sausage, eggs and the usual.  Nothing special but they did above average job trying.We will be back in the area many times in the future and will always stay at this motel.  It is good to have a place to call home in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Muhammad O, General Manager at Comfort Suites Tomball, responded to this reviewResponded June 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for three nights while visiting my mother who had moved to a retirement center near here.Enjoyed our stay, although we were not there much.  Better than average Motel.  Everything worked.  Clean.  Large rooms.  A nice place to stay.Breakfast included sausage, eggs and the usual.  Nothing special but they did above average job trying.We will be back in the area many times in the future and will always stay at this motel.  It is good to have a place to call home in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r200602186-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>200602186</t>
+  </si>
+  <si>
+    <t>04/10/2014</t>
+  </si>
+  <si>
+    <t>Nice clean hotel</t>
+  </si>
+  <si>
+    <t>Efficient check in. Friendly service. Nice sized and comfortable room. Nice shower head and towels. Loved the hot tub. Free breakfast just very standard. No standouts here. Adding oatmeal would be a plus. We would eat it and heard others mention it as well. Would stay here again. Only downside: the outer doors were never locked, even late at night. I mentioned to manager; I hope will be resolved for next visit. MoreShow less</t>
+  </si>
+  <si>
+    <t>Efficient check in. Friendly service. Nice sized and comfortable room. Nice shower head and towels. Loved the hot tub. Free breakfast just very standard. No standouts here. Adding oatmeal would be a plus. We would eat it and heard others mention it as well. Would stay here again. Only downside: the outer doors were never locked, even late at night. I mentioned to manager; I hope will be resolved for next visit. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r200503608-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>200503608</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>Help when we needed it.</t>
+  </si>
+  <si>
+    <t>Excellent staff and Management.  Very helpful and attentive.  Would recommend to anyone.   We were in town for medicla emergency of family member.  Our special needs were all met.  To the staff we say "thank you so much".MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent staff and Management.  Very helpful and attentive.  Would recommend to anyone.   We were in town for medicla emergency of family member.  Our special needs were all met.  To the staff we say "thank you so much".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r165712373-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>165712373</t>
+  </si>
+  <si>
+    <t>06/29/2013</t>
+  </si>
+  <si>
+    <t>Mostly ok</t>
+  </si>
+  <si>
+    <t>The hotel was clean and the staff was friendly. However, my kids were disappointed that they couldn't use the indoor pool. While well maintained, the pool was very cold. Even the hot tub was freezing cold. We asked at the front desk, and they simply stated that the pool isn't heated. However, they did say that the hot tub was broken and that they were waiting for a part. Still, that didn't change our situation. Next time, we will opt for another Comfort Suites down the road, which has an outdoor pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Taufiq U, General Manager at Comfort Suites Tomball, responded to this reviewResponded December 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2016</t>
+  </si>
+  <si>
+    <t>The hotel was clean and the staff was friendly. However, my kids were disappointed that they couldn't use the indoor pool. While well maintained, the pool was very cold. Even the hot tub was freezing cold. We asked at the front desk, and they simply stated that the pool isn't heated. However, they did say that the hot tub was broken and that they were waiting for a part. Still, that didn't change our situation. Next time, we will opt for another Comfort Suites down the road, which has an outdoor pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r160848163-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>160848163</t>
+  </si>
+  <si>
+    <t>05/15/2013</t>
+  </si>
+  <si>
+    <t>Room was booked by our company. Found the attendant to be very nice and helpful. Room was clean and roomy. Hotel is near many different restaurants and store. Very well located. Would stay here again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Room was booked by our company. Found the attendant to be very nice and helpful. Room was clean and roomy. Hotel is near many different restaurants and store. Very well located. Would stay here again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r159950727-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>159950727</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Good Room for an average hotel</t>
+  </si>
+  <si>
+    <t>This is the second time we have stayed at this hotel as we have to travel to the area a couple of times per year.  The room was clean and spacious.  It had a fridge and microwave as well as a couch and coffee table.  The internet connection was really good which was helpful as I had some office work to do.  The indoor pool and spa were nice but very heavy on the chlorine.  Check in and out were easy and quick and the breakfast was nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>This is the second time we have stayed at this hotel as we have to travel to the area a couple of times per year.  The room was clean and spacious.  It had a fridge and microwave as well as a couch and coffee table.  The internet connection was really good which was helpful as I had some office work to do.  The indoor pool and spa were nice but very heavy on the chlorine.  Check in and out were easy and quick and the breakfast was nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r146249184-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>146249184</t>
+  </si>
+  <si>
+    <t>11/26/2012</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this hotel on November 11.  I've stayed in several Comfort Suites and found them to have a nice clean spacious room at a good price.  This hotel met my expectations but what suprised me was the breakfast.  It was a Sunday night and the occupancy was low.  I expected to find the basic eggs, meat, do-it-yourself waffle, and a few other items commonly found at Comfort Suites.  What I found was not only the usual but along with it biscuits with a good sausage gravy and a larger than usual variety of fruits, cereals and other items.  All the hot items were fresh, hot, and plentiful.  I usually don't stay in the area of Houston where the hotel is located but may have to go out of the way to stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Taufiq U, General Manager at Comfort Suites Tomball, responded to this reviewResponded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2016</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this hotel on November 11.  I've stayed in several Comfort Suites and found them to have a nice clean spacious room at a good price.  This hotel met my expectations but what suprised me was the breakfast.  It was a Sunday night and the occupancy was low.  I expected to find the basic eggs, meat, do-it-yourself waffle, and a few other items commonly found at Comfort Suites.  What I found was not only the usual but along with it biscuits with a good sausage gravy and a larger than usual variety of fruits, cereals and other items.  All the hot items were fresh, hot, and plentiful.  I usually don't stay in the area of Houston where the hotel is located but may have to go out of the way to stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r145624568-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>145624568</t>
+  </si>
+  <si>
+    <t>11/17/2012</t>
+  </si>
+  <si>
+    <t>Not the best .</t>
+  </si>
+  <si>
+    <t>It was ok but not great. We choose this hotel because it was the closest to our destination that still had a room available. The indoor pool was ice cold. Also very small and the spa was Very hot ! Our iron didn't work and the made us bring it to them at the desk. Then they made us wait almost an hour for a new one. I left my credit card at the front desk and they didn't even let me know. I had to call them. Just wish the service was better. Was clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>It was ok but not great. We choose this hotel because it was the closest to our destination that still had a room available. The indoor pool was ice cold. Also very small and the spa was Very hot ! Our iron didn't work and the made us bring it to them at the desk. Then they made us wait almost an hour for a new one. I left my credit card at the front desk and they didn't even let me know. I had to call them. Just wish the service was better. Was clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r145188153-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>145188153</t>
+  </si>
+  <si>
+    <t>11/11/2012</t>
+  </si>
+  <si>
+    <t>The little details matter</t>
+  </si>
+  <si>
+    <t>The wife and I loved this hotel. Stayed one night. Very clean facility; nice staff; great breakfast.The room was clean, smoke free, and comfortable. The shower was great. The shower head height was fantastic. I absolutely hate the shower heads that make me duck to get wet. Not here. Thanks for that.Plus, little things were great. Coffee maker with tea bags too. Pad and pen by the phone. Soft towels (the wife loved them). I cannot say enough about this place.We stay in Tomball every year for the Renn Fest in Magnolia. This is our new permanent home away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>The wife and I loved this hotel. Stayed one night. Very clean facility; nice staff; great breakfast.The room was clean, smoke free, and comfortable. The shower was great. The shower head height was fantastic. I absolutely hate the shower heads that make me duck to get wet. Not here. Thanks for that.Plus, little things were great. Coffee maker with tea bags too. Pad and pen by the phone. Soft towels (the wife loved them). I cannot say enough about this place.We stay in Tomball every year for the Renn Fest in Magnolia. This is our new permanent home away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r133942477-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>133942477</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>Really nice suites and amenities, but staff leaves something to be desired.</t>
+  </si>
+  <si>
+    <t>Staff refers to front desk personnel. Just not helpful or professional. I really enjoyed the breakfast and the suites, but had a hard time parking the big bus. DON'T BRING LARGE  VEHICLES HERE, EVEN THOUGH THEY SAY OKAY.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Staff refers to front desk personnel. Just not helpful or professional. I really enjoyed the breakfast and the suites, but had a hard time parking the big bus. DON'T BRING LARGE  VEHICLES HERE, EVEN THOUGH THEY SAY OKAY.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r133870668-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>133870668</t>
+  </si>
+  <si>
+    <t>Room not Clean, but everything else good</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for one night, while visiting some friends in Houston.  Check in was quick and simple, and the girl was very friendly.  We had a room with two double beds on our reservation, and she quickly changed it so that we could have one king bed.  Once we got to our room is where the problem was.  There were grapes, crackers, and juice boxes sitting out on the table in the room.  There was also opened milk and yogurt left in the fridge.  We decided to just throw the stuff away instead of request a new room.  Other than the hotel was good.  The beds were comfortable and had plenty of pillows.  We ate the complimentary breakfast and it was very good.  There was waffles, sausage, bacon, eggs, biscuits, gravy, and an assortment of pastries.  So besides the room being dirty when we first went in our stay was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for one night, while visiting some friends in Houston.  Check in was quick and simple, and the girl was very friendly.  We had a room with two double beds on our reservation, and she quickly changed it so that we could have one king bed.  Once we got to our room is where the problem was.  There were grapes, crackers, and juice boxes sitting out on the table in the room.  There was also opened milk and yogurt left in the fridge.  We decided to just throw the stuff away instead of request a new room.  Other than the hotel was good.  The beds were comfortable and had plenty of pillows.  We ate the complimentary breakfast and it was very good.  There was waffles, sausage, bacon, eggs, biscuits, gravy, and an assortment of pastries.  So besides the room being dirty when we first went in our stay was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r133696848-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>133696848</t>
+  </si>
+  <si>
+    <t>07/07/2012</t>
+  </si>
+  <si>
+    <t>Clean and comfortable hotel</t>
+  </si>
+  <si>
+    <t>Quick check-in/out process. Very clean and comfortable hotel, nice and quiet. Beds are comfortable with plenty of pillows. Excellent breakfast with a lot of variety. Fruits were fresh. Hotel management is tip top, great up keeping of hotel. Front desk staff is nice and helpful. Overall a great hotel for a fair price.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Quick check-in/out process. Very clean and comfortable hotel, nice and quiet. Beds are comfortable with plenty of pillows. Excellent breakfast with a lot of variety. Fruits were fresh. Hotel management is tip top, great up keeping of hotel. Front desk staff is nice and helpful. Overall a great hotel for a fair price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r125872547-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>125872547</t>
+  </si>
+  <si>
+    <t>03/09/2012</t>
+  </si>
+  <si>
+    <t>Smiling service</t>
+  </si>
+  <si>
+    <t>Comfort Suites is pretty average in a good way. Big clean rooms, nice beds, comp breakfast, etc. But when I had a strange change-of-plans situation, they were exceptionally accommodating when they really didn't have to be. To a person, each employee made an authentic attempt to understand our peculiar circumstances and patiently work with us to our satisfaction, especially Manager Muhammed Owais, who smiled through it all. Thank you for making what might have been a bad experience a great one. The food at The Goodson Cafe across the street is exceptional as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Taufiq U, General Manager at Comfort Suites Tomball, responded to this reviewResponded December 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2016</t>
+  </si>
+  <si>
+    <t>Comfort Suites is pretty average in a good way. Big clean rooms, nice beds, comp breakfast, etc. But when I had a strange change-of-plans situation, they were exceptionally accommodating when they really didn't have to be. To a person, each employee made an authentic attempt to understand our peculiar circumstances and patiently work with us to our satisfaction, especially Manager Muhammed Owais, who smiled through it all. Thank you for making what might have been a bad experience a great one. The food at The Goodson Cafe across the street is exceptional as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r124803826-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>124803826</t>
+  </si>
+  <si>
+    <t>02/19/2012</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service Makes Up For Any Shortcomings</t>
+  </si>
+  <si>
+    <t>Stayed here three nights for a business trip. The lobby and dining area was small but very nice. The choices in the breakfast area were more than average, including various small boxes of cereal and Pop Tarts-something you don't see everyday. There was a small computer room and printer, which I used frequently. The pool is not heated, the hot tub is very small, but nice, Clean towels were left out for use. My room showed a little wear and tear, not too much, and was not super clean, but not too bad. My sink in the bathroom did not drain, it was promptly fixed the next day. When I took a shower, the water did not seem hot enough. I could hear people in the other room. Did not care at all or the pillows, they are smaller than standard size. I had to make a "nest" out of them, and my neck was a little stiff in the morning. I absolutely loved the day manager, Nellie, and the night person, a blond lady. They were attentive, and took a personal interest in making sure my stay was as nice as possible, thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Taufiq U, General Manager at Comfort Suites Tomball, responded to this reviewResponded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here three nights for a business trip. The lobby and dining area was small but very nice. The choices in the breakfast area were more than average, including various small boxes of cereal and Pop Tarts-something you don't see everyday. There was a small computer room and printer, which I used frequently. The pool is not heated, the hot tub is very small, but nice, Clean towels were left out for use. My room showed a little wear and tear, not too much, and was not super clean, but not too bad. My sink in the bathroom did not drain, it was promptly fixed the next day. When I took a shower, the water did not seem hot enough. I could hear people in the other room. Did not care at all or the pillows, they are smaller than standard size. I had to make a "nest" out of them, and my neck was a little stiff in the morning. I absolutely loved the day manager, Nellie, and the night person, a blond lady. They were attentive, and took a personal interest in making sure my stay was as nice as possible, thanks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r122780085-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>122780085</t>
+  </si>
+  <si>
+    <t>01/08/2012</t>
+  </si>
+  <si>
+    <t>Still great after several stays.</t>
+  </si>
+  <si>
+    <t>My wife and I have stayed at this Comfort Suites several times over the past couple of years.  Each and every time has been a very good experience.  We both have a severe allergy to cigarette smoke, and staying somewhere that we don't have to be concerned about that has been great.  They even had staff on hand to prepare breakfast on Christmas morning.  We would definitely recommend this hotel to anyone planning a trip to the Tomball/Northwest Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>Taufiq U, General Manager at Comfort Suites Tomball, responded to this reviewResponded December 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2016</t>
+  </si>
+  <si>
+    <t>My wife and I have stayed at this Comfort Suites several times over the past couple of years.  Each and every time has been a very good experience.  We both have a severe allergy to cigarette smoke, and staying somewhere that we don't have to be concerned about that has been great.  They even had staff on hand to prepare breakfast on Christmas morning.  We would definitely recommend this hotel to anyone planning a trip to the Tomball/Northwest Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r119917236-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>119917236</t>
+  </si>
+  <si>
+    <t>10/30/2011</t>
+  </si>
+  <si>
+    <t>Good choice for the 
+Rennaisance Festival</t>
+  </si>
+  <si>
+    <t>This is a nice new Comfot Inn. Good amenities , a better than usual breakfast.  Unfortunately, the first night of my two night stay was pretty much ruined by a large number of young guests who were up until 3:00 am, making a LOT of noise and wandering around with no consideration for other guests.  i can tell you the sound-proofing between rooms is excellent, but sadly not so much the doors. Luckily, they left prior to my second night.  My only other complant is that you need to be six feet tall to reach the shower nozzle to adjust it.   This hotel is convenient if you're attending the Rennaisance Festival, and substantially less pricy than staying in, say, The Woodlands.  I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a nice new Comfot Inn. Good amenities , a better than usual breakfast.  Unfortunately, the first night of my two night stay was pretty much ruined by a large number of young guests who were up until 3:00 am, making a LOT of noise and wandering around with no consideration for other guests.  i can tell you the sound-proofing between rooms is excellent, but sadly not so much the doors. Luckily, they left prior to my second night.  My only other complant is that you need to be six feet tall to reach the shower nozzle to adjust it.   This hotel is convenient if you're attending the Rennaisance Festival, and substantially less pricy than staying in, say, The Woodlands.  I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r118569948-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>118569948</t>
+  </si>
+  <si>
+    <t>09/25/2011</t>
+  </si>
+  <si>
+    <t>Horrible Management</t>
+  </si>
+  <si>
+    <t>Th manager of this hotel made our stay during the evacuations for the wildfire incredibly stressful.  They did nothing but hassle us and treat us like second rate citizens because we were using vouchers from a local charity to help us pay for the hotel.  This was the only place we could find.  We would have been better off and treated with more respect of we would have stayed at the high school shelter.  Do not stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Th manager of this hotel made our stay during the evacuations for the wildfire incredibly stressful.  They did nothing but hassle us and treat us like second rate citizens because we were using vouchers from a local charity to help us pay for the hotel.  This was the only place we could find.  We would have been better off and treated with more respect of we would have stayed at the high school shelter.  Do not stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r117934021-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>117934021</t>
+  </si>
+  <si>
+    <t>09/11/2011</t>
+  </si>
+  <si>
+    <t>We were evacuees from Magnolia. Texas wildfire.  Staff including Manager. Muhammad Owais. were so wonderful.</t>
+  </si>
+  <si>
+    <t>Everyone was so diligent to accommodate our needs.  Fresh scrambled eggs at breakfast was so soothing.  Staff so friendly and energetic.  Beds great! Cleanliness and quality seems to be the standard.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>Everyone was so diligent to accommodate our needs.  Fresh scrambled eggs at breakfast was so soothing.  Staff so friendly and energetic.  Beds great! Cleanliness and quality seems to be the standard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r82616793-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>82616793</t>
+  </si>
+  <si>
+    <t>10/08/2010</t>
+  </si>
+  <si>
+    <t>I highly recommend Comfort Suites Tomball!!!</t>
+  </si>
+  <si>
+    <t>If you want to be in a place at home.... My husband and I have recommended your Comfort Suites Tomball Hotel to our friends and business associates.   We are walking distance to resturants, banking, hospital and entertainment.   My husband and I have enjoyed these amenities for the past 6 months and will continue until we leave.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>If you want to be in a place at home.... My husband and I have recommended your Comfort Suites Tomball Hotel to our friends and business associates.   We are walking distance to resturants, banking, hospital and entertainment.   My husband and I have enjoyed these amenities for the past 6 months and will continue until we leave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r78168640-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>78168640</t>
+  </si>
+  <si>
+    <t>09/03/2010</t>
+  </si>
+  <si>
+    <t>Average, pros and cons</t>
+  </si>
+  <si>
+    <t>Pros - nice lobby, 2-queens and a nice sitting area with couch and coffee table, bathroom was nice sized.  Location is great for Tomball, right near the medical center and not very noisy considering the major highway just outside.  Cons - pool was VERY COLD (in August!), wifi was so SLOW that watching video was agonizing, exercise room was small and equipment was not hotel-quality, no headboards.  Location is not great for access to Houston - traffic and toll roads!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>Pros - nice lobby, 2-queens and a nice sitting area with couch and coffee table, bathroom was nice sized.  Location is great for Tomball, right near the medical center and not very noisy considering the major highway just outside.  Cons - pool was VERY COLD (in August!), wifi was so SLOW that watching video was agonizing, exercise room was small and equipment was not hotel-quality, no headboards.  Location is not great for access to Houston - traffic and toll roads!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r76037576-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>76037576</t>
+  </si>
+  <si>
+    <t>08/20/2010</t>
+  </si>
+  <si>
+    <t>Very modern room</t>
+  </si>
+  <si>
+    <t>This hotel is very comfortable and a very good value for the Houston area.  Very convenient.  Great breakfast - probably as good as a hotel breakfast I've ever had.  Very friendly staff.  Pool and exercise room are nice.  Well-stocked rooms and very pleasant.  The couch and chair in the king suite makes it very comfortable for a longer stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is very comfortable and a very good value for the Houston area.  Very convenient.  Great breakfast - probably as good as a hotel breakfast I've ever had.  Very friendly staff.  Pool and exercise room are nice.  Well-stocked rooms and very pleasant.  The couch and chair in the king suite makes it very comfortable for a longer stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r61147944-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>61147944</t>
+  </si>
+  <si>
+    <t>04/12/2010</t>
+  </si>
+  <si>
+    <t>Small room and poor service</t>
+  </si>
+  <si>
+    <t>The King Suite was very small, after pulling out the sofa bed the room was cut in half to the point of having to close the sofa bed to get to the bath room. The sofa bed had no sheet or blanket. We had to get that from the front desk, plus they had no pillows for it. The outside windows would shuy all the way. The indoor pool was closed during our stay there. The fitness center was also closed.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r32178231-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>32178231</t>
+  </si>
+  <si>
+    <t>06/12/2009</t>
+  </si>
+  <si>
+    <t>New but hot and only clean on the surface</t>
+  </si>
+  <si>
+    <t>Stayed here for two night in May with colleague to visit another office we have in Tomball.  We normally stay at the La Quinta a few blocks down.
+Upoon arriving the hotel looks really nice, clean, and fresh.  Check-in was easy and make my way to the rooms.  Hotel was really nice and an upgrade from the La Quinta and Holiday Inn Express that are also there.
+The room was very spacious.  I was impressed at its size.  Had living area, microwave, refridgerator, coffe maker and hair dryer.  It had an alarm clock with nature sounds and you could even connect your iPod.  I really liked that feature - thought it was cool.
+My room had a king size bed in it.  The first night,I slept next to the alarm clock and am a pretty motionless sleeper.  The rest of the bed remained in a "still made" like state.  I put the "do not disturb" sign on my door while I went to work because I didn't want house keeping in my room for such a short stay and am bit paranoid.  :-)  So the that night I got in my little nook on my side of the bed.  As corny as it may seem I thought to myself: "Self, you should take up the whole bed and enjoy your sleep.  Just go ahead and sprawl out."  Now remember that the rest of the bed remained undisturbed from the day...Stayed here for two night in May with colleague to visit another office we have in Tomball.  We normally stay at the La Quinta a few blocks down.Upoon arriving the hotel looks really nice, clean, and fresh.  Check-in was easy and make my way to the rooms.  Hotel was really nice and an upgrade from the La Quinta and Holiday Inn Express that are also there.The room was very spacious.  I was impressed at its size.  Had living area, microwave, refridgerator, coffe maker and hair dryer.  It had an alarm clock with nature sounds and you could even connect your iPod.  I really liked that feature - thought it was cool.My room had a king size bed in it.  The first night,I slept next to the alarm clock and am a pretty motionless sleeper.  The rest of the bed remained in a "still made" like state.  I put the "do not disturb" sign on my door while I went to work because I didn't want house keeping in my room for such a short stay and am bit paranoid.  :-)  So the that night I got in my little nook on my side of the bed.  As corny as it may seem I thought to myself: "Self, you should take up the whole bed and enjoy your sleep.  Just go ahead and sprawl out."  Now remember that the rest of the bed remained undisturbed from the day I arrived and was still made.  I moved the covers and pillows to find someone else's hair in the bed.  It was all over the place.  I am talking a good ten strains of very dark hair that were all over the pillows and sheets and they did NOT belong to me.  I was instantly grossed out!!!  Housekeeping apparently only cleans on the surface and didn't feel like changing the sheets from the previous stay.  I was disgusted.The air conditioner was a bit inadequate and didn't cool of the room very well.  It may have been that one unit.  Sort of my luck and is expected.  The bathrooms had granite counter tops and the tub surround looked to be travertine.  Very nice.I am thinking (hoping) the house keeping was problematic to one person.  Hopefully she might not be there long when she is discovered.  I will give it another chance and check the sheets right away.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>Stayed here for two night in May with colleague to visit another office we have in Tomball.  We normally stay at the La Quinta a few blocks down.
+Upoon arriving the hotel looks really nice, clean, and fresh.  Check-in was easy and make my way to the rooms.  Hotel was really nice and an upgrade from the La Quinta and Holiday Inn Express that are also there.
+The room was very spacious.  I was impressed at its size.  Had living area, microwave, refridgerator, coffe maker and hair dryer.  It had an alarm clock with nature sounds and you could even connect your iPod.  I really liked that feature - thought it was cool.
+My room had a king size bed in it.  The first night,I slept next to the alarm clock and am a pretty motionless sleeper.  The rest of the bed remained in a "still made" like state.  I put the "do not disturb" sign on my door while I went to work because I didn't want house keeping in my room for such a short stay and am bit paranoid.  :-)  So the that night I got in my little nook on my side of the bed.  As corny as it may seem I thought to myself: "Self, you should take up the whole bed and enjoy your sleep.  Just go ahead and sprawl out."  Now remember that the rest of the bed remained undisturbed from the day...Stayed here for two night in May with colleague to visit another office we have in Tomball.  We normally stay at the La Quinta a few blocks down.Upoon arriving the hotel looks really nice, clean, and fresh.  Check-in was easy and make my way to the rooms.  Hotel was really nice and an upgrade from the La Quinta and Holiday Inn Express that are also there.The room was very spacious.  I was impressed at its size.  Had living area, microwave, refridgerator, coffe maker and hair dryer.  It had an alarm clock with nature sounds and you could even connect your iPod.  I really liked that feature - thought it was cool.My room had a king size bed in it.  The first night,I slept next to the alarm clock and am a pretty motionless sleeper.  The rest of the bed remained in a "still made" like state.  I put the "do not disturb" sign on my door while I went to work because I didn't want house keeping in my room for such a short stay and am bit paranoid.  :-)  So the that night I got in my little nook on my side of the bed.  As corny as it may seem I thought to myself: "Self, you should take up the whole bed and enjoy your sleep.  Just go ahead and sprawl out."  Now remember that the rest of the bed remained undisturbed from the day I arrived and was still made.  I moved the covers and pillows to find someone else's hair in the bed.  It was all over the place.  I am talking a good ten strains of very dark hair that were all over the pillows and sheets and they did NOT belong to me.  I was instantly grossed out!!!  Housekeeping apparently only cleans on the surface and didn't feel like changing the sheets from the previous stay.  I was disgusted.The air conditioner was a bit inadequate and didn't cool of the room very well.  It may have been that one unit.  Sort of my luck and is expected.  The bathrooms had granite counter tops and the tub surround looked to be travertine.  Very nice.I am thinking (hoping) the house keeping was problematic to one person.  Hopefully she might not be there long when she is discovered.  I will give it another chance and check the sheets right away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r29832103-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>29832103</t>
+  </si>
+  <si>
+    <t>05/12/2009</t>
+  </si>
+  <si>
+    <t>Never again!</t>
+  </si>
+  <si>
+    <t>We stayed at the Comfort Suites in Tomball Texas. It's off of Hwy 249 north and on Michel Rd. Almost on the corner of 249 north and Michel Rd. It can be seen from Hwy 249 north and south if you are looking for it. Its behind another establishment.
+I reserved a room with 2 queen beds, coffee maker, mini refrigerator, hairdryer, etc. I checked in at the front desk around 3 p.m. and afterwards we started unloading our stuff. The guy at the front desk asked if we wanted a room on the middle or top floor. I decided to get one on the top floor thinking my kids may love that. What a mistake! The room temperature was almost unbearable! At first I thought it was just me from unloading our stuff. Then I thought maybe it was hot considering the sun was "hitting" the rooftop. We had to leave and were gone for most of the day. I thought by the time we returned it would be cool. It was hot when we returned! Our AC was set on 60 and I bet it was every bit of 80 in that room. I didn't complain, because I didn't have time. We left again for about an hour. The room was still hot when we returned! To make matters worse, we had to use the stairs when we returned, because the elevator quit working. There wasn't anyway I...We stayed at the Comfort Suites in Tomball Texas. It's off of Hwy 249 north and on Michel Rd. Almost on the corner of 249 north and Michel Rd. It can be seen from Hwy 249 north and south if you are looking for it. Its behind another establishment.I reserved a room with 2 queen beds, coffee maker, mini refrigerator, hairdryer, etc. I checked in at the front desk around 3 p.m. and afterwards we started unloading our stuff. The guy at the front desk asked if we wanted a room on the middle or top floor. I decided to get one on the top floor thinking my kids may love that. What a mistake! The room temperature was almost unbearable! At first I thought it was just me from unloading our stuff. Then I thought maybe it was hot considering the sun was "hitting" the rooftop. We had to leave and were gone for most of the day. I thought by the time we returned it would be cool. It was hot when we returned! Our AC was set on 60 and I bet it was every bit of 80 in that room. I didn't complain, because I didn't have time. We left again for about an hour. The room was still hot when we returned! To make matters worse, we had to use the stairs when we returned, because the elevator quit working. There wasn't anyway I was going to walk up and down those stairs. Once was bad enough. My husband went downstairs and asked if we could get a room on the bottom floor. We got another room without any problems, but we had to settle for a one king size bed with a sofa bed. Our room on the bottom floor was a whole lot cooler. The indoor swimming pool, OMG! We walked inside the indoor swimming pool area and the heat almost knocked us completely out! Much worse than the top room floor. I could barely breathe! I felt like we walked into a sauna room. We walked out and I went to the front desk about it. The guy said we could open the windows. I didn't think that would work, it did though. I wouldn't recommend anyone to stay here for the price I paid. What I paid, we shouldn't have experienced the problems we faced here. Over $100 per night! We made the best of it thank goodness. I wasn't about to let this place ruin a perfectly good thing why we were visiting this area for.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at the Comfort Suites in Tomball Texas. It's off of Hwy 249 north and on Michel Rd. Almost on the corner of 249 north and Michel Rd. It can be seen from Hwy 249 north and south if you are looking for it. Its behind another establishment.
+I reserved a room with 2 queen beds, coffee maker, mini refrigerator, hairdryer, etc. I checked in at the front desk around 3 p.m. and afterwards we started unloading our stuff. The guy at the front desk asked if we wanted a room on the middle or top floor. I decided to get one on the top floor thinking my kids may love that. What a mistake! The room temperature was almost unbearable! At first I thought it was just me from unloading our stuff. Then I thought maybe it was hot considering the sun was "hitting" the rooftop. We had to leave and were gone for most of the day. I thought by the time we returned it would be cool. It was hot when we returned! Our AC was set on 60 and I bet it was every bit of 80 in that room. I didn't complain, because I didn't have time. We left again for about an hour. The room was still hot when we returned! To make matters worse, we had to use the stairs when we returned, because the elevator quit working. There wasn't anyway I...We stayed at the Comfort Suites in Tomball Texas. It's off of Hwy 249 north and on Michel Rd. Almost on the corner of 249 north and Michel Rd. It can be seen from Hwy 249 north and south if you are looking for it. Its behind another establishment.I reserved a room with 2 queen beds, coffee maker, mini refrigerator, hairdryer, etc. I checked in at the front desk around 3 p.m. and afterwards we started unloading our stuff. The guy at the front desk asked if we wanted a room on the middle or top floor. I decided to get one on the top floor thinking my kids may love that. What a mistake! The room temperature was almost unbearable! At first I thought it was just me from unloading our stuff. Then I thought maybe it was hot considering the sun was "hitting" the rooftop. We had to leave and were gone for most of the day. I thought by the time we returned it would be cool. It was hot when we returned! Our AC was set on 60 and I bet it was every bit of 80 in that room. I didn't complain, because I didn't have time. We left again for about an hour. The room was still hot when we returned! To make matters worse, we had to use the stairs when we returned, because the elevator quit working. There wasn't anyway I was going to walk up and down those stairs. Once was bad enough. My husband went downstairs and asked if we could get a room on the bottom floor. We got another room without any problems, but we had to settle for a one king size bed with a sofa bed. Our room on the bottom floor was a whole lot cooler. The indoor swimming pool, OMG! We walked inside the indoor swimming pool area and the heat almost knocked us completely out! Much worse than the top room floor. I could barely breathe! I felt like we walked into a sauna room. We walked out and I went to the front desk about it. The guy said we could open the windows. I didn't think that would work, it did though. I wouldn't recommend anyone to stay here for the price I paid. What I paid, we shouldn't have experienced the problems we faced here. Over $100 per night! We made the best of it thank goodness. I wasn't about to let this place ruin a perfectly good thing why we were visiting this area for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r17139128-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>17139128</t>
+  </si>
+  <si>
+    <t>06/22/2008</t>
+  </si>
+  <si>
+    <t>Brand new! Excellent accomodations!</t>
+  </si>
+  <si>
+    <t>I booked the room for $80. What a surprise. The place was brand new, fresh and extremely comfortable. The rooms are large and fully equipped. We had two queen beds and a sofa sleeper. There was plenty of room even with the sofa sleeper opened. The bathroom is huge. What a great stay we had. It was also centrally located and very convenient to everything you could possibly want or need. The management was very pleasant and friendly. I have stayed in places far more expensive and have never had such a great stay. We were there for two nights and wished it could have been longer. The beds are soft and comfortable, even the sofa sleeper. The halls are well lit. The lobby is very tastefully decorated. It was all just so fresh and airy. It's a "no smoking" hotel and that was a plus. They even had extended cable service. Overall it was one of the best hotel stays I've had in a long time and I've had a LOT of stays in the past two years. I would not hesitate to book at this hotel and HIGHLY recommend it!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>Taufiq U, General Manager at Comfort Suites Tomball, responded to this reviewResponded December 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2016</t>
+  </si>
+  <si>
+    <t>I booked the room for $80. What a surprise. The place was brand new, fresh and extremely comfortable. The rooms are large and fully equipped. We had two queen beds and a sofa sleeper. There was plenty of room even with the sofa sleeper opened. The bathroom is huge. What a great stay we had. It was also centrally located and very convenient to everything you could possibly want or need. The management was very pleasant and friendly. I have stayed in places far more expensive and have never had such a great stay. We were there for two nights and wished it could have been longer. The beds are soft and comfortable, even the sofa sleeper. The halls are well lit. The lobby is very tastefully decorated. It was all just so fresh and airy. It's a "no smoking" hotel and that was a plus. They even had extended cable service. Overall it was one of the best hotel stays I've had in a long time and I've had a LOT of stays in the past two years. I would not hesitate to book at this hotel and HIGHLY recommend it!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r12906610-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>12906610</t>
+  </si>
+  <si>
+    <t>01/22/2008</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>Excellent Brand new hotel with clean rooms, great service and the fastest internet. Better value for the quality than other hotels in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent Brand new hotel with clean rooms, great service and the fastest internet. Better value for the quality than other hotels in the area.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1693,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1725,3409 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>118</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>103</v>
+      </c>
+      <c r="X10" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" t="s">
+        <v>126</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>127</v>
+      </c>
+      <c r="X11" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>127</v>
+      </c>
+      <c r="X12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>127</v>
+      </c>
+      <c r="X13" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>143</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>127</v>
+      </c>
+      <c r="X14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" t="s">
+        <v>153</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>154</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>127</v>
+      </c>
+      <c r="X15" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>161</v>
+      </c>
+      <c r="O16" t="s">
+        <v>118</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>127</v>
+      </c>
+      <c r="X16" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>168</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>169</v>
+      </c>
+      <c r="X17" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O18" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>178</v>
+      </c>
+      <c r="X18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>182</v>
+      </c>
+      <c r="J19" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" t="s">
+        <v>184</v>
+      </c>
+      <c r="L19" t="s">
+        <v>185</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>168</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>186</v>
+      </c>
+      <c r="X19" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" t="s">
+        <v>193</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>194</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>195</v>
+      </c>
+      <c r="X20" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>199</v>
+      </c>
+      <c r="J21" t="s">
+        <v>200</v>
+      </c>
+      <c r="K21" t="s">
+        <v>201</v>
+      </c>
+      <c r="L21" t="s">
+        <v>202</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>203</v>
+      </c>
+      <c r="O21" t="s">
+        <v>118</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>204</v>
+      </c>
+      <c r="X21" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>208</v>
+      </c>
+      <c r="J22" t="s">
+        <v>209</v>
+      </c>
+      <c r="K22" t="s">
+        <v>210</v>
+      </c>
+      <c r="L22" t="s">
+        <v>211</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>203</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>212</v>
+      </c>
+      <c r="X22" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23" t="s">
+        <v>217</v>
+      </c>
+      <c r="K23" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23" t="s">
+        <v>219</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>220</v>
+      </c>
+      <c r="O23" t="s">
+        <v>118</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>221</v>
+      </c>
+      <c r="X23" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>224</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>225</v>
+      </c>
+      <c r="J24" t="s">
+        <v>226</v>
+      </c>
+      <c r="K24" t="s">
+        <v>227</v>
+      </c>
+      <c r="L24" t="s">
+        <v>228</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>229</v>
+      </c>
+      <c r="O24" t="s">
+        <v>126</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>221</v>
+      </c>
+      <c r="X24" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>232</v>
+      </c>
+      <c r="J25" t="s">
+        <v>233</v>
+      </c>
+      <c r="K25" t="s">
+        <v>234</v>
+      </c>
+      <c r="L25" t="s">
+        <v>235</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>236</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>237</v>
+      </c>
+      <c r="X25" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>240</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>241</v>
+      </c>
+      <c r="J26" t="s">
+        <v>242</v>
+      </c>
+      <c r="K26" t="s">
+        <v>243</v>
+      </c>
+      <c r="L26" t="s">
+        <v>244</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>245</v>
+      </c>
+      <c r="O26" t="s">
+        <v>77</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>246</v>
+      </c>
+      <c r="X26" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>249</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>250</v>
+      </c>
+      <c r="J27" t="s">
+        <v>251</v>
+      </c>
+      <c r="K27" t="s">
+        <v>252</v>
+      </c>
+      <c r="L27" t="s">
+        <v>253</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>245</v>
+      </c>
+      <c r="O27" t="s">
+        <v>118</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>246</v>
+      </c>
+      <c r="X27" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>255</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>256</v>
+      </c>
+      <c r="J28" t="s">
+        <v>257</v>
+      </c>
+      <c r="K28" t="s">
+        <v>258</v>
+      </c>
+      <c r="L28" t="s">
+        <v>259</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>245</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>246</v>
+      </c>
+      <c r="X28" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>261</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>262</v>
+      </c>
+      <c r="J29" t="s">
+        <v>263</v>
+      </c>
+      <c r="K29" t="s">
+        <v>264</v>
+      </c>
+      <c r="L29" t="s">
+        <v>265</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>267</v>
+      </c>
+      <c r="X29" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>270</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>271</v>
+      </c>
+      <c r="J30" t="s">
+        <v>272</v>
+      </c>
+      <c r="K30" t="s">
+        <v>166</v>
+      </c>
+      <c r="L30" t="s">
+        <v>273</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>274</v>
+      </c>
+      <c r="O30" t="s">
+        <v>118</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>267</v>
+      </c>
+      <c r="X30" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>276</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>277</v>
+      </c>
+      <c r="J31" t="s">
+        <v>278</v>
+      </c>
+      <c r="K31" t="s">
+        <v>279</v>
+      </c>
+      <c r="L31" t="s">
+        <v>280</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>281</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>267</v>
+      </c>
+      <c r="X31" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>283</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>284</v>
+      </c>
+      <c r="J32" t="s">
+        <v>285</v>
+      </c>
+      <c r="K32" t="s">
+        <v>286</v>
+      </c>
+      <c r="L32" t="s">
+        <v>287</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>288</v>
+      </c>
+      <c r="O32" t="s">
+        <v>118</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>289</v>
+      </c>
+      <c r="X32" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>292</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>293</v>
+      </c>
+      <c r="J33" t="s">
+        <v>294</v>
+      </c>
+      <c r="K33" t="s">
+        <v>295</v>
+      </c>
+      <c r="L33" t="s">
+        <v>296</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>289</v>
+      </c>
+      <c r="X33" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>298</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>299</v>
+      </c>
+      <c r="J34" t="s">
+        <v>300</v>
+      </c>
+      <c r="K34" t="s">
+        <v>301</v>
+      </c>
+      <c r="L34" t="s">
+        <v>302</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>288</v>
+      </c>
+      <c r="O34" t="s">
+        <v>77</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>289</v>
+      </c>
+      <c r="X34" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>304</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>305</v>
+      </c>
+      <c r="J35" t="s">
+        <v>306</v>
+      </c>
+      <c r="K35" t="s">
+        <v>307</v>
+      </c>
+      <c r="L35" t="s">
+        <v>308</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>309</v>
+      </c>
+      <c r="O35" t="s">
+        <v>118</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>289</v>
+      </c>
+      <c r="X35" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>311</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>312</v>
+      </c>
+      <c r="J36" t="s">
+        <v>306</v>
+      </c>
+      <c r="K36" t="s">
+        <v>313</v>
+      </c>
+      <c r="L36" t="s">
+        <v>314</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>309</v>
+      </c>
+      <c r="O36" t="s">
+        <v>77</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>267</v>
+      </c>
+      <c r="X36" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>316</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>317</v>
+      </c>
+      <c r="J37" t="s">
+        <v>318</v>
+      </c>
+      <c r="K37" t="s">
+        <v>319</v>
+      </c>
+      <c r="L37" t="s">
+        <v>320</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>321</v>
+      </c>
+      <c r="O37" t="s">
+        <v>111</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>267</v>
+      </c>
+      <c r="X37" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>323</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>324</v>
+      </c>
+      <c r="J38" t="s">
+        <v>325</v>
+      </c>
+      <c r="K38" t="s">
+        <v>326</v>
+      </c>
+      <c r="L38" t="s">
+        <v>327</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>328</v>
+      </c>
+      <c r="O38" t="s">
+        <v>111</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>329</v>
+      </c>
+      <c r="X38" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>332</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>333</v>
+      </c>
+      <c r="J39" t="s">
+        <v>334</v>
+      </c>
+      <c r="K39" t="s">
+        <v>335</v>
+      </c>
+      <c r="L39" t="s">
+        <v>336</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>337</v>
+      </c>
+      <c r="O39" t="s">
+        <v>118</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>338</v>
+      </c>
+      <c r="X39" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>341</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>342</v>
+      </c>
+      <c r="J40" t="s">
+        <v>343</v>
+      </c>
+      <c r="K40" t="s">
+        <v>344</v>
+      </c>
+      <c r="L40" t="s">
+        <v>345</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>346</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>347</v>
+      </c>
+      <c r="X40" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>350</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>351</v>
+      </c>
+      <c r="J41" t="s">
+        <v>352</v>
+      </c>
+      <c r="K41" t="s">
+        <v>353</v>
+      </c>
+      <c r="L41" t="s">
+        <v>354</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>347</v>
+      </c>
+      <c r="X41" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>356</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>357</v>
+      </c>
+      <c r="J42" t="s">
+        <v>358</v>
+      </c>
+      <c r="K42" t="s">
+        <v>359</v>
+      </c>
+      <c r="L42" t="s">
+        <v>360</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>338</v>
+      </c>
+      <c r="X42" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>362</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>363</v>
+      </c>
+      <c r="J43" t="s">
+        <v>364</v>
+      </c>
+      <c r="K43" t="s">
+        <v>365</v>
+      </c>
+      <c r="L43" t="s">
+        <v>366</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>367</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>338</v>
+      </c>
+      <c r="X43" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>369</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>370</v>
+      </c>
+      <c r="J44" t="s">
+        <v>371</v>
+      </c>
+      <c r="K44" t="s">
+        <v>372</v>
+      </c>
+      <c r="L44" t="s">
+        <v>373</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>374</v>
+      </c>
+      <c r="O44" t="s">
+        <v>118</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>329</v>
+      </c>
+      <c r="X44" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>376</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>377</v>
+      </c>
+      <c r="J45" t="s">
+        <v>378</v>
+      </c>
+      <c r="K45" t="s">
+        <v>379</v>
+      </c>
+      <c r="L45" t="s">
+        <v>380</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>381</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>329</v>
+      </c>
+      <c r="X45" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>383</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>384</v>
+      </c>
+      <c r="J46" t="s">
+        <v>385</v>
+      </c>
+      <c r="K46" t="s">
+        <v>386</v>
+      </c>
+      <c r="L46" t="s">
+        <v>387</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>381</v>
+      </c>
+      <c r="O46" t="s">
+        <v>77</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>329</v>
+      </c>
+      <c r="X46" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>389</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>390</v>
+      </c>
+      <c r="J47" t="s">
+        <v>391</v>
+      </c>
+      <c r="K47" t="s">
+        <v>392</v>
+      </c>
+      <c r="L47" t="s">
+        <v>393</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>394</v>
+      </c>
+      <c r="O47" t="s">
+        <v>126</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>395</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>396</v>
+      </c>
+      <c r="J48" t="s">
+        <v>397</v>
+      </c>
+      <c r="K48" t="s">
+        <v>398</v>
+      </c>
+      <c r="L48" t="s">
+        <v>399</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>400</v>
+      </c>
+      <c r="O48" t="s">
+        <v>118</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>402</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>403</v>
+      </c>
+      <c r="J49" t="s">
+        <v>404</v>
+      </c>
+      <c r="K49" t="s">
+        <v>405</v>
+      </c>
+      <c r="L49" t="s">
+        <v>406</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>408</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>409</v>
+      </c>
+      <c r="J50" t="s">
+        <v>410</v>
+      </c>
+      <c r="K50" t="s">
+        <v>411</v>
+      </c>
+      <c r="L50" t="s">
+        <v>412</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>413</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>414</v>
+      </c>
+      <c r="X50" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>417</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>418</v>
+      </c>
+      <c r="J51" t="s">
+        <v>419</v>
+      </c>
+      <c r="K51" t="s">
+        <v>420</v>
+      </c>
+      <c r="L51" t="s">
+        <v>421</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>414</v>
+      </c>
+      <c r="X51" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_128.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_128.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="659">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r568751219-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>56780</t>
+  </si>
+  <si>
+    <t>816814</t>
+  </si>
+  <si>
+    <t>568751219</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t>Thank you for the great stay</t>
+  </si>
+  <si>
+    <t>Family’s first night in town before we move into our own hotel use and they treated us really nice even if we were late for our checkout due to closing taking longer than it should. Will for sure recommend this hotel. Close to 249 and good breakfast. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Comfort S, General Manager at Comfort Suites Tomball, responded to this reviewResponded March 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2018</t>
+  </si>
+  <si>
+    <t>Family’s first night in town before we move into our own hotel use and they treated us really nice even if we were late for our checkout due to closing taking longer than it should. Will for sure recommend this hotel. Close to 249 and good breakfast. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r531236776-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>531236776</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>Save your self and go to a Holiday Inn Express instead</t>
+  </si>
+  <si>
+    <t>There is a odor the moment you enter the doors and for some reason front desk acted like they knew nothing of what I was saying. The pictures did not exactly match their rooms. The place seems older and the service nor the place was impressive. The carpets on the floors have stains, the internet was so slow I used my data the week I was there. The tv had bad reception, the pullout bed sofa is sooo uncomfortable do not use that option play for real beds as they are comfortable.The parking is not well lit and the breakfast is the only bright side to the whole thing. The lobby is also ten time prettier than your room.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Comfort S, General Manager at Comfort Suites Tomball, responded to this reviewResponded December 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2017</t>
+  </si>
+  <si>
+    <t>There is a odor the moment you enter the doors and for some reason front desk acted like they knew nothing of what I was saying. The pictures did not exactly match their rooms. The place seems older and the service nor the place was impressive. The carpets on the floors have stains, the internet was so slow I used my data the week I was there. The tv had bad reception, the pullout bed sofa is sooo uncomfortable do not use that option play for real beds as they are comfortable.The parking is not well lit and the breakfast is the only bright side to the whole thing. The lobby is also ten time prettier than your room.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r527656104-Comfort_Suites_Tomball-Tomball_Texas.html</t>
   </si>
   <si>
-    <t>56780</t>
-  </si>
-  <si>
-    <t>816814</t>
-  </si>
-  <si>
     <t>527656104</t>
   </si>
   <si>
@@ -174,12 +231,6 @@
     <t>Entering the hotel lobby, there's a stale odor of mildew. The front desk manager was rude. The establishment seems rundown and in despair. Renovations are needed, furniture is old, carpet is dirty &amp; dated, internet did not work, limited tv channels &amp; bad reception, and the hallways have trash and live roaches running around. The bed is extremely uncomfortable. There were live active bugs present on the breakfast buffet. Also, the parking is terrible. This place truly needs some TLC.MoreShow less</t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Comfort S, General Manager at Comfort Suites Tomball, responded to this reviewResponded December 7, 2017</t>
   </si>
   <si>
@@ -231,6 +282,57 @@
     <t>There were more positives than negatives with our stay, which is why this hotel got a 4 and not a 3. I traveled with my older 2 boys(ages 20 and 15). We had a room with 2 queen beds and a sofa bed. Check-in was quick and the clerk was friendly enough. The indoor pool was a big plus. It was clean and my sons told me the water was cold, but they enjoyed the pool and hot tub anyway. The room was large enough and the beds were comfortable. The pillows were not that good, but we usually bring our own, so no big deal. The biggest negative about the room was that the AC did not cool well. I reported this to the front desk and was told to put it on 62 degrees. The room did not cool to even 72 degrees at any point, but we were able to deal with it and sleep. My concern is that my husband who likes it very cold would likely not be comfortable here. The microwave needed to be wiped out, so I did and the fridge was sticky and did not cool too well. I had a travel ice-chest, so the fridge issue was solved, but it was disappointing because I expected a fully-working fridge and AC and did not get what I paid for in those areas. I also used guest laundry and found it barely adequate....There were more positives than negatives with our stay, which is why this hotel got a 4 and not a 3. I traveled with my older 2 boys(ages 20 and 15). We had a room with 2 queen beds and a sofa bed. Check-in was quick and the clerk was friendly enough. The indoor pool was a big plus. It was clean and my sons told me the water was cold, but they enjoyed the pool and hot tub anyway. The room was large enough and the beds were comfortable. The pillows were not that good, but we usually bring our own, so no big deal. The biggest negative about the room was that the AC did not cool well. I reported this to the front desk and was told to put it on 62 degrees. The room did not cool to even 72 degrees at any point, but we were able to deal with it and sleep. My concern is that my husband who likes it very cold would likely not be comfortable here. The microwave needed to be wiped out, so I did and the fridge was sticky and did not cool too well. I had a travel ice-chest, so the fridge issue was solved, but it was disappointing because I expected a fully-working fridge and AC and did not get what I paid for in those areas. I also used guest laundry and found it barely adequate. The front desk ladies were kind enough to give me a few scoops of laundry detergent. The washer and dryer are coin-operated. I had to run the dryer twice on 2 loads and a 3rd time on one load because it is on its last leg. It was very noisy and did not dry well. The clothes did not smell too good either when I took them out and it was not because they were sitting in the laundry wet for long. I suggest they either repair the dryer or replace it. Luckily we were able to make do or I would have had to go find a laundromat(not convenient). The breakfast was very good. Only suggestion would be to serve scrambled eggs, not sunny side up and serve bacon more often or with the sausage. Housekeeping staff was okay. One staff member did not speak much English and did not seem to understand that I wanted both trash cans bags changed. She just look confused and gave me one huge trash bag. I did not make a big deal of it. Lana at the front desk was very nice and friendly to us and my sons told me that other clerks were also nice to them. The hotel is located near enough restaurants, fast food, grocery stores(HEB), movie theater, and a bowling alley. We may return to this location and if so, I hope the AC issue is cleared up. It would also help to have fully functional laundry facilities.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r474422031-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>474422031</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Best hotel bed I've ever slept on!</t>
+  </si>
+  <si>
+    <t>We were in town to visit our daughter, son-in-love, and brand new grandson. This hotel was the closest one to where they live, so we chose to stay here, not only because of location, but because of recent reviews. The staff was wonderful, the room was clean, the beds were the most comfortable I've ever slept on, and the continental breakfast was awesome for us! The other thing I really liked is out of all the hotels I've stayed at, this is the only one that provided large bath towels that wrapped around your whole body! That was a plus! Also, it's right in the middle of where the action is...lots of restaurants and a Walmart nearby. While I'm giving this hotel a 5-star rating, there were just a couple things that could be changed. While the room didn't smell, the hallways did, and it wasn't a very nice smell...very strong to the point of making me a little bit ill. We were there for 5 nights and ended up booking a 2nd room for our daughter for the last 3 nights of our stay. While we had the AARP discount, it would have been nice to receive an additional discount for booking the extra room, plus booking for 5 nights. Instead, the rate went up for Friday and Saturday, and they weren't fully booked. But, overall, it's a very clean hotel with clean rooms, comfortable beds that my husband...We were in town to visit our daughter, son-in-love, and brand new grandson. This hotel was the closest one to where they live, so we chose to stay here, not only because of location, but because of recent reviews. The staff was wonderful, the room was clean, the beds were the most comfortable I've ever slept on, and the continental breakfast was awesome for us! The other thing I really liked is out of all the hotels I've stayed at, this is the only one that provided large bath towels that wrapped around your whole body! That was a plus! Also, it's right in the middle of where the action is...lots of restaurants and a Walmart nearby. While I'm giving this hotel a 5-star rating, there were just a couple things that could be changed. While the room didn't smell, the hallways did, and it wasn't a very nice smell...very strong to the point of making me a little bit ill. We were there for 5 nights and ended up booking a 2nd room for our daughter for the last 3 nights of our stay. While we had the AARP discount, it would have been nice to receive an additional discount for booking the extra room, plus booking for 5 nights. Instead, the rate went up for Friday and Saturday, and they weren't fully booked. But, overall, it's a very clean hotel with clean rooms, comfortable beds that my husband even slept on instead of the the pull out sofa, and very nice and courteous staff. That earns them a 5-star rating from me. I would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>We were in town to visit our daughter, son-in-love, and brand new grandson. This hotel was the closest one to where they live, so we chose to stay here, not only because of location, but because of recent reviews. The staff was wonderful, the room was clean, the beds were the most comfortable I've ever slept on, and the continental breakfast was awesome for us! The other thing I really liked is out of all the hotels I've stayed at, this is the only one that provided large bath towels that wrapped around your whole body! That was a plus! Also, it's right in the middle of where the action is...lots of restaurants and a Walmart nearby. While I'm giving this hotel a 5-star rating, there were just a couple things that could be changed. While the room didn't smell, the hallways did, and it wasn't a very nice smell...very strong to the point of making me a little bit ill. We were there for 5 nights and ended up booking a 2nd room for our daughter for the last 3 nights of our stay. While we had the AARP discount, it would have been nice to receive an additional discount for booking the extra room, plus booking for 5 nights. Instead, the rate went up for Friday and Saturday, and they weren't fully booked. But, overall, it's a very clean hotel with clean rooms, comfortable beds that my husband...We were in town to visit our daughter, son-in-love, and brand new grandson. This hotel was the closest one to where they live, so we chose to stay here, not only because of location, but because of recent reviews. The staff was wonderful, the room was clean, the beds were the most comfortable I've ever slept on, and the continental breakfast was awesome for us! The other thing I really liked is out of all the hotels I've stayed at, this is the only one that provided large bath towels that wrapped around your whole body! That was a plus! Also, it's right in the middle of where the action is...lots of restaurants and a Walmart nearby. While I'm giving this hotel a 5-star rating, there were just a couple things that could be changed. While the room didn't smell, the hallways did, and it wasn't a very nice smell...very strong to the point of making me a little bit ill. We were there for 5 nights and ended up booking a 2nd room for our daughter for the last 3 nights of our stay. While we had the AARP discount, it would have been nice to receive an additional discount for booking the extra room, plus booking for 5 nights. Instead, the rate went up for Friday and Saturday, and they weren't fully booked. But, overall, it's a very clean hotel with clean rooms, comfortable beds that my husband even slept on instead of the the pull out sofa, and very nice and courteous staff. That earns them a 5-star rating from me. I would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r447217552-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>447217552</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and Convenient </t>
+  </si>
+  <si>
+    <t>Stayed for a travel ball tournament along with some families from our team. The staff was friendly, the rooms were clean and comfortable.  Close to shopping and restaurants. Inside pool was a plus as it was December! MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Taufiq U, General Manager at Comfort Suites Tomball, responded to this reviewResponded December 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2016</t>
+  </si>
+  <si>
+    <t>Stayed for a travel ball tournament along with some families from our team. The staff was friendly, the rooms were clean and comfortable.  Close to shopping and restaurants. Inside pool was a plus as it was December! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r441012625-Comfort_Suites_Tomball-Tomball_Texas.html</t>
   </si>
   <si>
@@ -309,6 +411,57 @@
     <t>The only redeeming thing about this hotel was the breakfast and it was just ok.  I will not recommend this particular Comfort Suites hotel.  I've stayed at many different hotels and many different Comfort Suites.  This one should be  removed from all searches even on the Comfort Suites website.  The room was so humid and warm we put the AC on as cold as it could get and it didn't help.  The second floor hallway smells like body odor.  The back stairwell looked like time forgot it since the 60's.  The back door didn't lock and random people just came in and out.  The front desk girl had no personality or communication skills, but she did the minimum needed and I guess can't be faulted for that.  The pillows could be compared to bags of small rocks or bags of small amounts of tissue paper.  The bed should have been called a half pipe since the only support was the very side edges of the mattress.  The carpet was smelly.  I guess when the sheets were washed, they were washed with grey and black lint since they were full of grey and black lint.  The sheets did smell clean and feel clean though.  The bathroom was a bit and the dark side due to weak lighting.  We didn't sleep at all and refuse to ever go back to this Comfort Suites.  When we need to go back to this area,...The only redeeming thing about this hotel was the breakfast and it was just ok.  I will not recommend this particular Comfort Suites hotel.  I've stayed at many different hotels and many different Comfort Suites.  This one should be  removed from all searches even on the Comfort Suites website.  The room was so humid and warm we put the AC on as cold as it could get and it didn't help.  The second floor hallway smells like body odor.  The back stairwell looked like time forgot it since the 60's.  The back door didn't lock and random people just came in and out.  The front desk girl had no personality or communication skills, but she did the minimum needed and I guess can't be faulted for that.  The pillows could be compared to bags of small rocks or bags of small amounts of tissue paper.  The bed should have been called a half pipe since the only support was the very side edges of the mattress.  The carpet was smelly.  I guess when the sheets were washed, they were washed with grey and black lint since they were full of grey and black lint.  The sheets did smell clean and feel clean though.  The bathroom was a bit and the dark side due to weak lighting.  We didn't sleep at all and refuse to ever go back to this Comfort Suites.  When we need to go back to this area, we will sleep at another hotel.  I think any hotel would be better than this one.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r431203258-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>431203258</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>MY BIG MISTAKE STAYING AT THE COMFORT SUITES IN TOMBALL,TEXAS.</t>
+  </si>
+  <si>
+    <t>I paid a very high room rate for two rooms for two days. The rooms smelled horribly,the mirror hanging on the wall had to be removed because we had young children who would have gotten hurt. The TV had to be replaced.  The toilet seat was not attached properly so it slide all over the place.  The indoor pool was not maintained properly.  There were dead bugs in the water and the water temparture was freezing.  We rented two suites and the fold out beds were the most uncomfortable any of us have ever slept on. The rooms also appeared not to have been serviced routinely.  If I had money to waste, I would file a lawsuit against the Hotel Chain.Suffice to say I nor anyone I know will ever stay at a Comfort Suite Chain Hotel room again.John CallegariDates of Stay October 14 &amp; 15, 2016MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Taufiq U, General Manager at Comfort Suites Tomball, responded to this reviewResponded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2016</t>
+  </si>
+  <si>
+    <t>I paid a very high room rate for two rooms for two days. The rooms smelled horribly,the mirror hanging on the wall had to be removed because we had young children who would have gotten hurt. The TV had to be replaced.  The toilet seat was not attached properly so it slide all over the place.  The indoor pool was not maintained properly.  There were dead bugs in the water and the water temparture was freezing.  We rented two suites and the fold out beds were the most uncomfortable any of us have ever slept on. The rooms also appeared not to have been serviced routinely.  If I had money to waste, I would file a lawsuit against the Hotel Chain.Suffice to say I nor anyone I know will ever stay at a Comfort Suite Chain Hotel room again.John CallegariDates of Stay October 14 &amp; 15, 2016More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r429958836-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>429958836</t>
+  </si>
+  <si>
+    <t>10/20/2016</t>
+  </si>
+  <si>
+    <t>Good value, clean</t>
+  </si>
+  <si>
+    <t>We stayed at this location for a quick trip requiring a single night.We requested a king, accessible.  The accessible features were quite minimal, so if you absolutely need certain features, I suggest calling the property to ask.  We make this request because we have found we are needing the grab bars etc to feel more secure.The room was clean, and apparently recently renovated.  The bath renovation had a couple flaws that were cosmetic, but indicative of the speed with which these renovations probably were accomplished.Breakfast was fairly standard, with sausage disks and fried egg disks as the hot items; which tased better than they looked.  The breakfast area was exceptionally clean, the the service was very attentive.  (It was a slow morning.)Front desk staff was welcoming and helpful.Even with turn by turn directions I missed the turn to onto Michel (at night).  There is no traffic light at this intersection, and the hotel's signage is - shall we say - muted.My rating based on what I believe to be a very good value proposition.MoreShow less</t>
+  </si>
+  <si>
+    <t>Taufiq U, General Manager at Comfort Suites Tomball, responded to this reviewResponded October 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at this location for a quick trip requiring a single night.We requested a king, accessible.  The accessible features were quite minimal, so if you absolutely need certain features, I suggest calling the property to ask.  We make this request because we have found we are needing the grab bars etc to feel more secure.The room was clean, and apparently recently renovated.  The bath renovation had a couple flaws that were cosmetic, but indicative of the speed with which these renovations probably were accomplished.Breakfast was fairly standard, with sausage disks and fried egg disks as the hot items; which tased better than they looked.  The breakfast area was exceptionally clean, the the service was very attentive.  (It was a slow morning.)Front desk staff was welcoming and helpful.Even with turn by turn directions I missed the turn to onto Michel (at night).  There is no traffic light at this intersection, and the hotel's signage is - shall we say - muted.My rating based on what I believe to be a very good value proposition.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r424812197-Comfort_Suites_Tomball-Tomball_Texas.html</t>
   </si>
   <si>
@@ -327,12 +480,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t>Taufiq U, General Manager at Comfort Suites Tomball, responded to this reviewResponded October 25, 2016</t>
-  </si>
-  <si>
-    <t>Responded October 25, 2016</t>
-  </si>
-  <si>
     <t>We had to pop into town at the last minute for an event.  I think I booked about 24 hours before arrival.  I have a relative that lives in Cypress which is just down the road.  He told me that the few hotels in his area are higher end hotels.  I had already checked out of the Comfort Suites by that time and was glad I stayed here as it was only about 9 miles from where we had to be.  This hotel is not new and they were working on the main road by the hotel.  That being said we were very comfortable here.  The property was clean and the staff we met with we very nice.  Our room had plenty of room and the bed and pillows were just fine.  The vanity and bathroom were excellent too.  We arrived late and left about 9 am so we did not check on a pool or fitness but if I'm not mistaken there is an indoor pool and hot tub on 1st floor.  We were glad we chose Comfort Suites for our quick stay and also glad we did not choose to pay nearly double the rate to stay in a nicer newer property.More</t>
   </si>
   <si>
@@ -378,6 +525,45 @@
     <t>This hotel was very disappointing. It was dirty and smelly.   The bed and pillows were not comfortable. The air did not cool down the room until 1 am. I will not stay here again. The lotion had been used. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r412574839-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>412574839</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>Very Satisfied</t>
+  </si>
+  <si>
+    <t>Was very pleased with overall stay staff was very friendly and hotel overall was clean and well maintained. Location of the hotel is off of the road very quiet but yet still all is close enough that you don't have to travel far.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Was very pleased with overall stay staff was very friendly and hotel overall was clean and well maintained. Location of the hotel is off of the road very quiet but yet still all is close enough that you don't have to travel far.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r408670103-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>408670103</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Decent spot</t>
+  </si>
+  <si>
+    <t>I stay at this location regularly.  Pleasant staff and good food.  Rooms are comfortable, but the property is getting in need of a refresh, particularly in the hallways, but even some rooms.  Location in Tomball is a bit off the highway, but not bad once you figure out where it is.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay at this location regularly.  Pleasant staff and good food.  Rooms are comfortable, but the property is getting in need of a refresh, particularly in the hallways, but even some rooms.  Location in Tomball is a bit off the highway, but not bad once you figure out where it is.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r408026601-Comfort_Suites_Tomball-Tomball_Texas.html</t>
   </si>
   <si>
@@ -396,9 +582,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Umer U, Guest Relations Manager at Comfort Suites Tomball, responded to this reviewResponded August 21, 2016</t>
   </si>
   <si>
@@ -444,6 +627,42 @@
     <t>We stayed here just short of two weeks for a working vacation. It was a wonderful place to stay. Close to many attractions, and if you love antiques, this is the spot.  It's kind of back from the road so it was nice and quiet. The employees were extremely nice, enjoyed talking with them. Would definitely go back for another extended stay. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r396021981-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>396021981</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>stayed for a wedding</t>
+  </si>
+  <si>
+    <t>the room was clean and nice, staff friendly and helpful breakfast out standing variety of food and clean...wonderful dining places with in walking distance for us older folks and really good food at these places..swimming pool nice too.. no complaints at allMoreShow less</t>
+  </si>
+  <si>
+    <t>the room was clean and nice, staff friendly and helpful breakfast out standing variety of food and clean...wonderful dining places with in walking distance for us older folks and really good food at these places..swimming pool nice too.. no complaints at allMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r394452535-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>394452535</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel and Great Staff</t>
+  </si>
+  <si>
+    <t>The hotel is clean and the rooms are spacious.   The staff is very accommodation and also made it a habit to say hello or good night whenever I walked by.  The only downfall to this hotel is no outdoor pool.  They do have an indoor pool but it would have been nice to enjoy the outdoors.  My fault I didn't think about that when I booked.  MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is clean and the rooms are spacious.   The staff is very accommodation and also made it a habit to say hello or good night whenever I walked by.  The only downfall to this hotel is no outdoor pool.  They do have an indoor pool but it would have been nice to enjoy the outdoors.  My fault I didn't think about that when I booked.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r384746339-Comfort_Suites_Tomball-Tomball_Texas.html</t>
   </si>
   <si>
@@ -507,6 +726,54 @@
     <t>Absolutely nice stay.  This location is right off a major road but tucked back, so that you do not hear the traffic.  There are plenty of shops and restaurants nearby.  Everything was clean and fresh.  Check in was easy and my room was just what I wanted.  I will be staying here again, whenever I am in town for business.  It is always refreshing to stay somewhere that appreciates your business.  I am a Choice Platinum and this hotel was perfect for me!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r356763865-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>356763865</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>WORST hotel</t>
+  </si>
+  <si>
+    <t>I came here on a Monday night after work and my customer had booked an entire week at this hotel through Priceline.  The front desk clerk was very nice and accommodating.  Looking around at the hotel, I couldn't believe this place was only a few years old.  The place was poorly maintained.  There were broken tiles in the elevator, the "mauve" paint was peeling and chipped on the elevator, there was peeling wallpaper and a strange smell in the entire hotel.  As I got into the elevator to go to the third floor, the smell intensified.  I entered the room and it was awful.  There was a curtain hanging from 4 hooks, the AC unit door to the controls was in the floor, the closet was scuffed, the carpet and bedding were worn, the bed was spongy and uncomfortable.  I attempted to use the hotel WiFi but it kept disconnecting me.  The TV remote was filthy.  After I disinfected the remote I attempted to surf through the channels.  Several of the channels were unavailable.  I noticed a pain in my eyes and in my forehead.  I then left to get dinner.  When I got into my car I noticed the pain lessened in my eyes and head.  Upon returning to the room the pain in my eyes and head started again.  I began googling my symptoms as I thought it could be an elevation in my blood pressure.  I started...I came here on a Monday night after work and my customer had booked an entire week at this hotel through Priceline.  The front desk clerk was very nice and accommodating.  Looking around at the hotel, I couldn't believe this place was only a few years old.  The place was poorly maintained.  There were broken tiles in the elevator, the "mauve" paint was peeling and chipped on the elevator, there was peeling wallpaper and a strange smell in the entire hotel.  As I got into the elevator to go to the third floor, the smell intensified.  I entered the room and it was awful.  There was a curtain hanging from 4 hooks, the AC unit door to the controls was in the floor, the closet was scuffed, the carpet and bedding were worn, the bed was spongy and uncomfortable.  I attempted to use the hotel WiFi but it kept disconnecting me.  The TV remote was filthy.  After I disinfected the remote I attempted to surf through the channels.  Several of the channels were unavailable.  I noticed a pain in my eyes and in my forehead.  I then left to get dinner.  When I got into my car I noticed the pain lessened in my eyes and head.  Upon returning to the room the pain in my eyes and head started again.  I began googling my symptoms as I thought it could be an elevation in my blood pressure.  I started having problems getting a deep breath around midnight.  I decided to get dressed and go to the car.  It took about an hour for the pain to subside and my breathing to normalize.  After much googling it seems it had to be some type of allergen.  I currently take allergy medication and have never had these specific symptoms.  I'm not sure what the allergen was but I'm assuming it was mold.  I spent most of the night in my car and checked out the next day.  I travel 100% for work and this is the worst hotel I have visited in my career.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I came here on a Monday night after work and my customer had booked an entire week at this hotel through Priceline.  The front desk clerk was very nice and accommodating.  Looking around at the hotel, I couldn't believe this place was only a few years old.  The place was poorly maintained.  There were broken tiles in the elevator, the "mauve" paint was peeling and chipped on the elevator, there was peeling wallpaper and a strange smell in the entire hotel.  As I got into the elevator to go to the third floor, the smell intensified.  I entered the room and it was awful.  There was a curtain hanging from 4 hooks, the AC unit door to the controls was in the floor, the closet was scuffed, the carpet and bedding were worn, the bed was spongy and uncomfortable.  I attempted to use the hotel WiFi but it kept disconnecting me.  The TV remote was filthy.  After I disinfected the remote I attempted to surf through the channels.  Several of the channels were unavailable.  I noticed a pain in my eyes and in my forehead.  I then left to get dinner.  When I got into my car I noticed the pain lessened in my eyes and head.  Upon returning to the room the pain in my eyes and head started again.  I began googling my symptoms as I thought it could be an elevation in my blood pressure.  I started...I came here on a Monday night after work and my customer had booked an entire week at this hotel through Priceline.  The front desk clerk was very nice and accommodating.  Looking around at the hotel, I couldn't believe this place was only a few years old.  The place was poorly maintained.  There were broken tiles in the elevator, the "mauve" paint was peeling and chipped on the elevator, there was peeling wallpaper and a strange smell in the entire hotel.  As I got into the elevator to go to the third floor, the smell intensified.  I entered the room and it was awful.  There was a curtain hanging from 4 hooks, the AC unit door to the controls was in the floor, the closet was scuffed, the carpet and bedding were worn, the bed was spongy and uncomfortable.  I attempted to use the hotel WiFi but it kept disconnecting me.  The TV remote was filthy.  After I disinfected the remote I attempted to surf through the channels.  Several of the channels were unavailable.  I noticed a pain in my eyes and in my forehead.  I then left to get dinner.  When I got into my car I noticed the pain lessened in my eyes and head.  Upon returning to the room the pain in my eyes and head started again.  I began googling my symptoms as I thought it could be an elevation in my blood pressure.  I started having problems getting a deep breath around midnight.  I decided to get dressed and go to the car.  It took about an hour for the pain to subside and my breathing to normalize.  After much googling it seems it had to be some type of allergen.  I currently take allergy medication and have never had these specific symptoms.  I'm not sure what the allergen was but I'm assuming it was mold.  I spent most of the night in my car and checked out the next day.  I travel 100% for work and this is the worst hotel I have visited in my career.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r339811516-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>339811516</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t>Chiefs Playoff Weekend</t>
+  </si>
+  <si>
+    <t>Nice 2 Queen suite with sofa bed, Slept 3 men comfortably, Everything nice and cleanStaff was very helpful, Breakfast was good, Surroundings felt safe at all hours, 3 am check-in, no problems,  24hr WhattaBurger within 2-3 blocks,  good fast eatsHot Tub was Hot!  As it should be, a little small though.   Good experience, highly recommend and will stay here again if in the areaMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Taufiq U, General Manager at Comfort Suites Tomball, responded to this reviewResponded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Nice 2 Queen suite with sofa bed, Slept 3 men comfortably, Everything nice and cleanStaff was very helpful, Breakfast was good, Surroundings felt safe at all hours, 3 am check-in, no problems,  24hr WhattaBurger within 2-3 blocks,  good fast eatsHot Tub was Hot!  As it should be, a little small though.   Good experience, highly recommend and will stay here again if in the areaMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r322634298-Comfort_Suites_Tomball-Tomball_Texas.html</t>
   </si>
   <si>
@@ -585,6 +852,57 @@
     <t>Stayed here for 4 nights on a recent visit to the Tomball area.  Needed a handicap accessible room for my mom, who uses a walker or wheel chair.  For some reason despite reserving a handicap room every time through choice hotels, I have to remind the desk clerk at check in.  Room was clean and very handicap accessible, including a walk or roll in shower area.  The breakfast was the worst on the trip and inedible.  Room was cleaned each day and the staff was very helpful.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r315493758-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>315493758</t>
+  </si>
+  <si>
+    <t>10/01/2015</t>
+  </si>
+  <si>
+    <t>12 days away from home</t>
+  </si>
+  <si>
+    <t>The staff at this hotel is amazing!! Everyone that works here has been super friendly, helpful and professional. Susan, Julie and Nellie all do a wonderful job making sure one is comfortable and satisfied. Two thumbs up!!! 5 Stars!! If I'm in town again this is where I will stay, I would recommend you do the same :)MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Muhammad O, General Manager at Comfort Suites Tomball, responded to this reviewResponded October 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2015</t>
+  </si>
+  <si>
+    <t>The staff at this hotel is amazing!! Everyone that works here has been super friendly, helpful and professional. Susan, Julie and Nellie all do a wonderful job making sure one is comfortable and satisfied. Two thumbs up!!! 5 Stars!! If I'm in town again this is where I will stay, I would recommend you do the same :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r311228770-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>311228770</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>Sad, frustrating trip; helpful employees eased some of my burden</t>
+  </si>
+  <si>
+    <t>What this hotel lacks in luxury it more than made up for for me in the attitudes, cheerfulness, and help provided me on this trip. I flew in to visit my father at Lawrence Street Health Center, where he is in hospice. This will be the last time I'll see him alive. My trip was already sad, but on top of it I lost my rental car, so I had no transportation. No problem walking from here to the medical complex and nursing home, it's just .6 miles away. But it did make everything more complicated. (The Mexican place right across the parking lot was very good, by the way.) Getting back to Hobby Airport is the real challenge, without paying cab fare of over $120 which is what it took for me to get here (obviously I had no idea since I'd never been to Houston, I should have flown into George Bush ugh). So one of the friendly women at the front desk recommended the Uber car service app, and even got me a discount code for it. I had several other questions and needed a few things, and they were very accommodating and understanding. Now to the room. Clean enough, spacious enough, and had a few extras like a fridge and microwave. Needing a bit of polish, though. But for my needs this was fine. Breakfast was actually perfect for me as there were hit and hard...What this hotel lacks in luxury it more than made up for for me in the attitudes, cheerfulness, and help provided me on this trip. I flew in to visit my father at Lawrence Street Health Center, where he is in hospice. This will be the last time I'll see him alive. My trip was already sad, but on top of it I lost my rental car, so I had no transportation. No problem walking from here to the medical complex and nursing home, it's just .6 miles away. But it did make everything more complicated. (The Mexican place right across the parking lot was very good, by the way.) Getting back to Hobby Airport is the real challenge, without paying cab fare of over $120 which is what it took for me to get here (obviously I had no idea since I'd never been to Houston, I should have flown into George Bush ugh). So one of the friendly women at the front desk recommended the Uber car service app, and even got me a discount code for it. I had several other questions and needed a few things, and they were very accommodating and understanding. Now to the room. Clean enough, spacious enough, and had a few extras like a fridge and microwave. Needing a bit of polish, though. But for my needs this was fine. Breakfast was actually perfect for me as there were hit and hard boiled eggs both, and breakfast meat along with all the other breakfast stuff. Lobby was nice, elevator was a little worse for the wear. If i was rating on room alone, I probably would have to give only 3 stars. But the service more than made up for it for me. MoreShow less</t>
+  </si>
+  <si>
+    <t>Muhammad O, General Manager at Comfort Suites Tomball, responded to this reviewResponded September 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2015</t>
+  </si>
+  <si>
+    <t>What this hotel lacks in luxury it more than made up for for me in the attitudes, cheerfulness, and help provided me on this trip. I flew in to visit my father at Lawrence Street Health Center, where he is in hospice. This will be the last time I'll see him alive. My trip was already sad, but on top of it I lost my rental car, so I had no transportation. No problem walking from here to the medical complex and nursing home, it's just .6 miles away. But it did make everything more complicated. (The Mexican place right across the parking lot was very good, by the way.) Getting back to Hobby Airport is the real challenge, without paying cab fare of over $120 which is what it took for me to get here (obviously I had no idea since I'd never been to Houston, I should have flown into George Bush ugh). So one of the friendly women at the front desk recommended the Uber car service app, and even got me a discount code for it. I had several other questions and needed a few things, and they were very accommodating and understanding. Now to the room. Clean enough, spacious enough, and had a few extras like a fridge and microwave. Needing a bit of polish, though. But for my needs this was fine. Breakfast was actually perfect for me as there were hit and hard...What this hotel lacks in luxury it more than made up for for me in the attitudes, cheerfulness, and help provided me on this trip. I flew in to visit my father at Lawrence Street Health Center, where he is in hospice. This will be the last time I'll see him alive. My trip was already sad, but on top of it I lost my rental car, so I had no transportation. No problem walking from here to the medical complex and nursing home, it's just .6 miles away. But it did make everything more complicated. (The Mexican place right across the parking lot was very good, by the way.) Getting back to Hobby Airport is the real challenge, without paying cab fare of over $120 which is what it took for me to get here (obviously I had no idea since I'd never been to Houston, I should have flown into George Bush ugh). So one of the friendly women at the front desk recommended the Uber car service app, and even got me a discount code for it. I had several other questions and needed a few things, and they were very accommodating and understanding. Now to the room. Clean enough, spacious enough, and had a few extras like a fridge and microwave. Needing a bit of polish, though. But for my needs this was fine. Breakfast was actually perfect for me as there were hit and hard boiled eggs both, and breakfast meat along with all the other breakfast stuff. Lobby was nice, elevator was a little worse for the wear. If i was rating on room alone, I probably would have to give only 3 stars. But the service more than made up for it for me. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r296414886-Comfort_Suites_Tomball-Tomball_Texas.html</t>
   </si>
   <si>
@@ -661,6 +979,45 @@
   </si>
   <si>
     <t>We stayed at the Comfort Suites in Tomball, Texas, this past weekend.  The staff is very friendly and helpful.  The rooms and linens were clean.  However, the property could use some sprucing up by corporate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r282708700-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>282708700</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No....just no. </t>
+  </si>
+  <si>
+    <t>My young boys and I recently traveled with my husband for work and we were going to have a relaxing hotel stay while he was on the job.  The smell that hit us in the face as soon as we walked in the building was like an air freshener that had molded and rotted and our room was no better. It looked like the desk chair had been pooped in and the couch was too disgusting to sit on. I felt cleaner NOT showering!  Let me stress that I am NOT a picky or high maintenance person and this may be the first non-positive review that I have ever written.  In the bathroom above the tub, looked like they had tried to paint over, what appeared to be, black mold but it did not do the trick and the paint/patch job was terrible!  We had two roaches in our room during our one night stay...one dead and one alive.  We were supposed to stay five nights but found other accommodations after the first 10 minutes for the rest of the trip. I didn't want my boys to touch anything!!  The curtains above the A/C unit were molded as well as all around the control unit and the wall. ALL the lamp shades were extremely soiled, torn and needed to be replaced.  The hair dryer handle was greasy...in fact, it seemed like everything we touched was greasy.  The air duct/vent that...My young boys and I recently traveled with my husband for work and we were going to have a relaxing hotel stay while he was on the job.  The smell that hit us in the face as soon as we walked in the building was like an air freshener that had molded and rotted and our room was no better. It looked like the desk chair had been pooped in and the couch was too disgusting to sit on. I felt cleaner NOT showering!  Let me stress that I am NOT a picky or high maintenance person and this may be the first non-positive review that I have ever written.  In the bathroom above the tub, looked like they had tried to paint over, what appeared to be, black mold but it did not do the trick and the paint/patch job was terrible!  We had two roaches in our room during our one night stay...one dead and one alive.  We were supposed to stay five nights but found other accommodations after the first 10 minutes for the rest of the trip. I didn't want my boys to touch anything!!  The curtains above the A/C unit were molded as well as all around the control unit and the wall. ALL the lamp shades were extremely soiled, torn and needed to be replaced.  The hair dryer handle was greasy...in fact, it seemed like everything we touched was greasy.  The air duct/vent that was right out of our room door, in the hallway, had at least an inch of dirty dust on it.  The front desk girl was very nice, the beds weren't uncomfortable and the sheet and bedding were clean.  If you need to get in out of the rain and don't want to shower then this place is fine but if you plan on staying in the room for any length of time at all, find other accommodations.  MoreShow less</t>
+  </si>
+  <si>
+    <t>My young boys and I recently traveled with my husband for work and we were going to have a relaxing hotel stay while he was on the job.  The smell that hit us in the face as soon as we walked in the building was like an air freshener that had molded and rotted and our room was no better. It looked like the desk chair had been pooped in and the couch was too disgusting to sit on. I felt cleaner NOT showering!  Let me stress that I am NOT a picky or high maintenance person and this may be the first non-positive review that I have ever written.  In the bathroom above the tub, looked like they had tried to paint over, what appeared to be, black mold but it did not do the trick and the paint/patch job was terrible!  We had two roaches in our room during our one night stay...one dead and one alive.  We were supposed to stay five nights but found other accommodations after the first 10 minutes for the rest of the trip. I didn't want my boys to touch anything!!  The curtains above the A/C unit were molded as well as all around the control unit and the wall. ALL the lamp shades were extremely soiled, torn and needed to be replaced.  The hair dryer handle was greasy...in fact, it seemed like everything we touched was greasy.  The air duct/vent that...My young boys and I recently traveled with my husband for work and we were going to have a relaxing hotel stay while he was on the job.  The smell that hit us in the face as soon as we walked in the building was like an air freshener that had molded and rotted and our room was no better. It looked like the desk chair had been pooped in and the couch was too disgusting to sit on. I felt cleaner NOT showering!  Let me stress that I am NOT a picky or high maintenance person and this may be the first non-positive review that I have ever written.  In the bathroom above the tub, looked like they had tried to paint over, what appeared to be, black mold but it did not do the trick and the paint/patch job was terrible!  We had two roaches in our room during our one night stay...one dead and one alive.  We were supposed to stay five nights but found other accommodations after the first 10 minutes for the rest of the trip. I didn't want my boys to touch anything!!  The curtains above the A/C unit were molded as well as all around the control unit and the wall. ALL the lamp shades were extremely soiled, torn and needed to be replaced.  The hair dryer handle was greasy...in fact, it seemed like everything we touched was greasy.  The air duct/vent that was right out of our room door, in the hallway, had at least an inch of dirty dust on it.  The front desk girl was very nice, the beds weren't uncomfortable and the sheet and bedding were clean.  If you need to get in out of the rain and don't want to shower then this place is fine but if you plan on staying in the room for any length of time at all, find other accommodations.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r281372574-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>281372574</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>Very clean and well designed hotel.  Good service.  Nice comfortable rooms, is fairly new and well kept.  Good location and within walking distance of shopping and restaurants.  One of our regular places to stay when visiting friends in Tomball.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Very clean and well designed hotel.  Good service.  Nice comfortable rooms, is fairly new and well kept.  Good location and within walking distance of shopping and restaurants.  One of our regular places to stay when visiting friends in Tomball.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r249219069-Comfort_Suites_Tomball-Tomball_Texas.html</t>
@@ -732,9 +1089,6 @@
     <t>Beautiful hotel; soft, comfortable beds; very spacious; indoor pool and spa; but obviously they have had a major water event recently as the entire first floor reeks of mildew and mustiness. The smell brought me right back to post-Hurricane Katrina New Orleans and my house percolating in flood waters for many weeks. I had allergies and migraines the whole trip. Thank God we stayed on the third floor. Our across the hall neighbors said they'd had to change their room because of the smell. MoreShow less</t>
   </si>
   <si>
-    <t>October 2014</t>
-  </si>
-  <si>
     <t>Muhammad O, Manager at Comfort Suites Tomball, responded to this reviewResponded October 23, 2014</t>
   </si>
   <si>
@@ -744,6 +1098,48 @@
     <t>Beautiful hotel; soft, comfortable beds; very spacious; indoor pool and spa; but obviously they have had a major water event recently as the entire first floor reeks of mildew and mustiness. The smell brought me right back to post-Hurricane Katrina New Orleans and my house percolating in flood waters for many weeks. I had allergies and migraines the whole trip. Thank God we stayed on the third floor. Our across the hall neighbors said they'd had to change their room because of the smell. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r219308394-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>219308394</t>
+  </si>
+  <si>
+    <t>08/03/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over Priced </t>
+  </si>
+  <si>
+    <t>This is one of the more expensive Comfort Suites my family and I have stayed in.   For the price, I expect exceptional service but this is not the case.   The rooms are hard to cool and there is no hot water.  It seems as though they are overcharging customers while regulating room and hot water temperatures.   I am a huge fan of the Comfort Suites brand, but this hotel falls miserably short.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Taufiq U, General Manager at Comfort Suites Tomball, responded to this reviewResponded December 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2016</t>
+  </si>
+  <si>
+    <t>This is one of the more expensive Comfort Suites my family and I have stayed in.   For the price, I expect exceptional service but this is not the case.   The rooms are hard to cool and there is no hot water.  It seems as though they are overcharging customers while regulating room and hot water temperatures.   I am a huge fan of the Comfort Suites brand, but this hotel falls miserably short.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r215813570-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>215813570</t>
+  </si>
+  <si>
+    <t>07/16/2014</t>
+  </si>
+  <si>
+    <t>Awful!</t>
+  </si>
+  <si>
+    <t>Couldn't get past the awful smell that hits you in the face when you walk into the hotel. The room was dark and dingy with a "Bates Motel" feel. I'm not sure how they are getting away with charging such high rates when there are many hotels within15 miles that are MUCH nicer. I would do your research and steer clear of this place.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r208274501-Comfort_Suites_Tomball-Tomball_Texas.html</t>
   </si>
   <si>
@@ -753,9 +1149,6 @@
     <t>05/31/2014</t>
   </si>
   <si>
-    <t>Nice place to stay</t>
-  </si>
-  <si>
     <t>We stayed here for three nights while visiting my mother who had moved to a retirement center near here.Enjoyed our stay, although we were not there much.  Better than average Motel.  Everything worked.  Clean.  Large rooms.  A nice place to stay.Breakfast included sausage, eggs and the usual.  Nothing special but they did above average job trying.We will be back in the area many times in the future and will always stay at this motel.  It is good to have a place to call home in the area.MoreShow less</t>
   </si>
   <si>
@@ -807,6 +1200,54 @@
     <t>Excellent staff and Management.  Very helpful and attentive.  Would recommend to anyone.   We were in town for medicla emergency of family member.  Our special needs were all met.  To the staff we say "thank you so much".More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r198018183-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>198018183</t>
+  </si>
+  <si>
+    <t>03/19/2014</t>
+  </si>
+  <si>
+    <t>Really bad value</t>
+  </si>
+  <si>
+    <t>We had no internet connection.  The wireless signal was too weak and too many people using, so we didn't have access.  The business center printer was out of toner, so printer was not usable. This was one of the more expensive Comfort Suites I have been to, yet the beds were WAY to soft, low water pressure, and no hot water.  The hotel was out of sheets, so for our room for 6 people there was only bedding for 4.The card reader on the outside door is broken, so while we parked on the end, we had to walk around the building to get inside.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>We had no internet connection.  The wireless signal was too weak and too many people using, so we didn't have access.  The business center printer was out of toner, so printer was not usable. This was one of the more expensive Comfort Suites I have been to, yet the beds were WAY to soft, low water pressure, and no hot water.  The hotel was out of sheets, so for our room for 6 people there was only bedding for 4.The card reader on the outside door is broken, so while we parked on the end, we had to walk around the building to get inside.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r177403575-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>177403575</t>
+  </si>
+  <si>
+    <t>09/16/2013</t>
+  </si>
+  <si>
+    <t>Comfort Suites in Tomball is perfect</t>
+  </si>
+  <si>
+    <t>We couldn't have stayed in a nicer place with a great value, than our 2 night stay in Tomball, Texas.  Very clean, quiet, wonderful breakfast, near stores and restaurants, etc. The staff couldn't have been more helpful.  They even had homemade cookies on the counter for an evening snack each night.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Taufiq U, General Manager at Comfort Suites Tomball, responded to this reviewResponded December 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2016</t>
+  </si>
+  <si>
+    <t>We couldn't have stayed in a nicer place with a great value, than our 2 night stay in Tomball, Texas.  Very clean, quiet, wonderful breakfast, near stores and restaurants, etc. The staff couldn't have been more helpful.  They even had homemade cookies on the counter for an evening snack each night.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r165712373-Comfort_Suites_Tomball-Tomball_Texas.html</t>
   </si>
   <si>
@@ -825,12 +1266,6 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t>Taufiq U, General Manager at Comfort Suites Tomball, responded to this reviewResponded December 4, 2016</t>
-  </si>
-  <si>
-    <t>Responded December 4, 2016</t>
-  </si>
-  <si>
     <t>The hotel was clean and the staff was friendly. However, my kids were disappointed that they couldn't use the indoor pool. While well maintained, the pool was very cold. Even the hot tub was freezing cold. We asked at the front desk, and they simply stated that the pool isn't heated. However, they did say that the hot tub was broken and that they were waiting for a part. Still, that didn't change our situation. Next time, we will opt for another Comfort Suites down the road, which has an outdoor pool.More</t>
   </si>
   <si>
@@ -873,6 +1308,45 @@
     <t>This is the second time we have stayed at this hotel as we have to travel to the area a couple of times per year.  The room was clean and spacious.  It had a fridge and microwave as well as a couch and coffee table.  The internet connection was really good which was helpful as I had some office work to do.  The indoor pool and spa were nice but very heavy on the chlorine.  Check in and out were easy and quick and the breakfast was nice.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r159163289-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>159163289</t>
+  </si>
+  <si>
+    <t>04/29/2013</t>
+  </si>
+  <si>
+    <t>Kudos to Hotel and Personnel</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel and know I will again if I return to the area.  The room was super-comfortable, quiet, immaculately kept and definitely traveler friendly.  Hotel employees were very gracious and eager to assist in any way they could.  Breakfasts offered a wide variety of choices, were tasty and hot.  Coffee was especially good!  Thank you for making my 10 day stay there one of the most pleasant hotel stays I have ever had!MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel and know I will again if I return to the area.  The room was super-comfortable, quiet, immaculately kept and definitely traveler friendly.  Hotel employees were very gracious and eager to assist in any way they could.  Breakfasts offered a wide variety of choices, were tasty and hot.  Coffee was especially good!  Thank you for making my 10 day stay there one of the most pleasant hotel stays I have ever had!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r151369345-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>151369345</t>
+  </si>
+  <si>
+    <t>02/04/2013</t>
+  </si>
+  <si>
+    <t>Worked well for us</t>
+  </si>
+  <si>
+    <t>This hotel generally exceeded my expectations.  The room was spacious and clean.  The rooms seem to have a higher-than-normal ceiling, which adds to the overall spacious feel.  The location is good too.  It is close to Tomball's business district with grocery stores and other shopping nearby.  The only thing that didn't work out so well for us was the breakfast.  They have the usual fare of hotel breakfast foods, but the waffle maker was not working right (a must for my kids).  When we looked for alternatives, they were out of most everything else despite it not being a terribly busy morning.  Get that little detail ironed out, and we'd be happy to stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>This hotel generally exceeded my expectations.  The room was spacious and clean.  The rooms seem to have a higher-than-normal ceiling, which adds to the overall spacious feel.  The location is good too.  It is close to Tomball's business district with grocery stores and other shopping nearby.  The only thing that didn't work out so well for us was the breakfast.  They have the usual fare of hotel breakfast foods, but the waffle maker was not working right (a must for my kids).  When we looked for alternatives, they were out of most everything else despite it not being a terribly busy morning.  Get that little detail ironed out, and we'd be happy to stay again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r146249184-Comfort_Suites_Tomball-Tomball_Texas.html</t>
   </si>
   <si>
@@ -891,12 +1365,6 @@
     <t>November 2012</t>
   </si>
   <si>
-    <t>Taufiq U, General Manager at Comfort Suites Tomball, responded to this reviewResponded October 26, 2016</t>
-  </si>
-  <si>
-    <t>Responded October 26, 2016</t>
-  </si>
-  <si>
     <t>My wife and I stayed at this hotel on November 11.  I've stayed in several Comfort Suites and found them to have a nice clean spacious room at a good price.  This hotel met my expectations but what suprised me was the breakfast.  It was a Sunday night and the occupancy was low.  I expected to find the basic eggs, meat, do-it-yourself waffle, and a few other items commonly found at Comfort Suites.  What I found was not only the usual but along with it biscuits with a good sausage gravy and a larger than usual variety of fruits, cereals and other items.  All the hot items were fresh, hot, and plentiful.  I usually don't stay in the area of Houston where the hotel is located but may have to go out of the way to stay there.More</t>
   </si>
   <si>
@@ -936,6 +1404,48 @@
     <t>The wife and I loved this hotel. Stayed one night. Very clean facility; nice staff; great breakfast.The room was clean, smoke free, and comfortable. The shower was great. The shower head height was fantastic. I absolutely hate the shower heads that make me duck to get wet. Not here. Thanks for that.Plus, little things were great. Coffee maker with tea bags too. Pad and pen by the phone. Soft towels (the wife loved them). I cannot say enough about this place.We stay in Tomball every year for the Renn Fest in Magnolia. This is our new permanent home away from home.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r142076289-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>142076289</t>
+  </si>
+  <si>
+    <t>10/05/2012</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this hotel on October 2. This is a fairly new hotel built in 2004. It is well maintained and clean. I will highlight the pros and cons.1. Good size room with a king size bed (medium firm).2. Big flat screen TV with lots of channel choices including a couple of HBO channels.3. Clean bathroom with basic amenities. Towels are white and I mean really white.4. Mini fridge to store your cold drinks or left over food. Also comes with a microwave oven.5. Free WiFi internet with good connection (at least in my room).6. The whole room is clean and the linens looked fresh.7. Friendly staff especially the morning person.8. Basic breakfast (boiled and scrambled eggs, bacon, sausages, cereals, fresh fruit, coffee, tea, etc). It's complimentary so can't complain considering we only paid $79++ for the room. If I have a coffee and a bagel I'm good to go.9. Welcome tea/ lemonade drink in the lobby is a nice touch.Cons1. The pillows are small, almost half the size of a long pillow that I am used to. Suggestion - switch to a more standard size pillows.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this hotel on October 2. This is a fairly new hotel built in 2004. It is well maintained and clean. I will highlight the pros and cons.1. Good size room with a king size bed (medium firm).2. Big flat screen TV with lots of channel choices including a couple of HBO channels.3. Clean bathroom with basic amenities. Towels are white and I mean really white.4. Mini fridge to store your cold drinks or left over food. Also comes with a microwave oven.5. Free WiFi internet with good connection (at least in my room).6. The whole room is clean and the linens looked fresh.7. Friendly staff especially the morning person.8. Basic breakfast (boiled and scrambled eggs, bacon, sausages, cereals, fresh fruit, coffee, tea, etc). It's complimentary so can't complain considering we only paid $79++ for the room. If I have a coffee and a bagel I'm good to go.9. Welcome tea/ lemonade drink in the lobby is a nice touch.Cons1. The pillows are small, almost half the size of a long pillow that I am used to. Suggestion - switch to a more standard size pillows.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r141103331-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>141103331</t>
+  </si>
+  <si>
+    <t>09/24/2012</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>I stayed at Comfort Suites in Tomball on two separate occasions in September for at least 3 days each time. The only complaints I had were the cleanliness of the shower head (mildew was growing on it in room 311) and the couches have grease looking stains wHere your head would rest. I just thought it was a little disgusting. The channels on the TV in room 311 were very fuzzy so I didn't bother watching TV. Other than that, the hotel was quiet and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>I stayed at Comfort Suites in Tomball on two separate occasions in September for at least 3 days each time. The only complaints I had were the cleanliness of the shower head (mildew was growing on it in room 311) and the couches have grease looking stains wHere your head would rest. I just thought it was a little disgusting. The channels on the TV in room 311 were very fuzzy so I didn't bother watching TV. Other than that, the hotel was quiet and comfortable.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r133942477-Comfort_Suites_Tomball-Tomball_Texas.html</t>
   </si>
   <si>
@@ -993,6 +1503,51 @@
     <t>Quick check-in/out process. Very clean and comfortable hotel, nice and quiet. Beds are comfortable with plenty of pillows. Excellent breakfast with a lot of variety. Fruits were fresh. Hotel management is tip top, great up keeping of hotel. Front desk staff is nice and helpful. Overall a great hotel for a fair price.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r132313101-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>132313101</t>
+  </si>
+  <si>
+    <t>06/19/2012</t>
+  </si>
+  <si>
+    <t>Beware!!!!!</t>
+  </si>
+  <si>
+    <t>After booking a room with this hotel on bookings.com, merely hours after my father had a major stroke, while in route from San Antonio to Tomball, a 4 hour trip, I received a call on my cell phone from the desk clerk at approx 11pm informing me there was a mistake and they had no rooms available.  Three days later I receive an email from bookings.com stating that Comfort Suites had billed me for a no show that morning.  After repeated attempts by bookings.com and myself personally, the GM, also the owner, Muhammad stated I was a no show and would get no refund.  I travel for a living and must say I have never had such an unpleasant dealing with a Comfort Suites but will likely never stay at one again if they condone this type of business from there franchisees.  I have referred this to the Chamber of Commerce in Tomball (who is acting upon it, thank you very much to them), will be referring to the BBB when time allows from caring for my father, and finally Comfort Suites corporate.  Stay away from this hotel in Tomball, there are plenty of clean reputable national chains there to choose from, these people are unscrupulous bad business people.  BEWARE!  Read some of their reviews on hotels.com too if you don't believe what you read here.MoreShow less</t>
+  </si>
+  <si>
+    <t>After booking a room with this hotel on bookings.com, merely hours after my father had a major stroke, while in route from San Antonio to Tomball, a 4 hour trip, I received a call on my cell phone from the desk clerk at approx 11pm informing me there was a mistake and they had no rooms available.  Three days later I receive an email from bookings.com stating that Comfort Suites had billed me for a no show that morning.  After repeated attempts by bookings.com and myself personally, the GM, also the owner, Muhammad stated I was a no show and would get no refund.  I travel for a living and must say I have never had such an unpleasant dealing with a Comfort Suites but will likely never stay at one again if they condone this type of business from there franchisees.  I have referred this to the Chamber of Commerce in Tomball (who is acting upon it, thank you very much to them), will be referring to the BBB when time allows from caring for my father, and finally Comfort Suites corporate.  Stay away from this hotel in Tomball, there are plenty of clean reputable national chains there to choose from, these people are unscrupulous bad business people.  BEWARE!  Read some of their reviews on hotels.com too if you don't believe what you read here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r126737702-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>126737702</t>
+  </si>
+  <si>
+    <t>03/27/2012</t>
+  </si>
+  <si>
+    <t>Overall positive experience</t>
+  </si>
+  <si>
+    <t>Double bed suites were spacious and well furnished.  Lighting in room was dimmer than I would have preferred but acceptable. Good location for either family or business travel as it is located far enough away from more congested areas of Houston but close enough for an easy commute.  Only negative was the limited signage made locating the property after dark more difficult.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Taufiq U, General Manager at Comfort Suites Tomball, responded to this reviewResponded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Double bed suites were spacious and well furnished.  Lighting in room was dimmer than I would have preferred but acceptable. Good location for either family or business travel as it is located far enough away from more congested areas of Houston but close enough for an easy commute.  Only negative was the limited signage made locating the property after dark more difficult.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r125872547-Comfort_Suites_Tomball-Tomball_Texas.html</t>
   </si>
   <si>
@@ -1008,9 +1563,6 @@
     <t>Comfort Suites is pretty average in a good way. Big clean rooms, nice beds, comp breakfast, etc. But when I had a strange change-of-plans situation, they were exceptionally accommodating when they really didn't have to be. To a person, each employee made an authentic attempt to understand our peculiar circumstances and patiently work with us to our satisfaction, especially Manager Muhammed Owais, who smiled through it all. Thank you for making what might have been a bad experience a great one. The food at The Goodson Cafe across the street is exceptional as well.MoreShow less</t>
   </si>
   <si>
-    <t>March 2012</t>
-  </si>
-  <si>
     <t>Taufiq U, General Manager at Comfort Suites Tomball, responded to this reviewResponded December 10, 2016</t>
   </si>
   <si>
@@ -1038,12 +1590,6 @@
     <t>February 2012</t>
   </si>
   <si>
-    <t>Taufiq U, General Manager at Comfort Suites Tomball, responded to this reviewResponded December 7, 2016</t>
-  </si>
-  <si>
-    <t>Responded December 7, 2016</t>
-  </si>
-  <si>
     <t>Stayed here three nights for a business trip. The lobby and dining area was small but very nice. The choices in the breakfast area were more than average, including various small boxes of cereal and Pop Tarts-something you don't see everyday. There was a small computer room and printer, which I used frequently. The pool is not heated, the hot tub is very small, but nice, Clean towels were left out for use. My room showed a little wear and tear, not too much, and was not super clean, but not too bad. My sink in the bathroom did not drain, it was promptly fixed the next day. When I took a shower, the water did not seem hot enough. I could hear people in the other room. Did not care at all or the pillows, they are smaller than standard size. I had to make a "nest" out of them, and my neck was a little stiff in the morning. I absolutely loved the day manager, Nellie, and the night person, a blond lady. They were attentive, and took a personal interest in making sure my stay was as nice as possible, thanks!More</t>
   </si>
   <si>
@@ -1072,6 +1618,45 @@
   </si>
   <si>
     <t>My wife and I have stayed at this Comfort Suites several times over the past couple of years.  Each and every time has been a very good experience.  We both have a severe allergy to cigarette smoke, and staying somewhere that we don't have to be concerned about that has been great.  They even had staff on hand to prepare breakfast on Christmas morning.  We would definitely recommend this hotel to anyone planning a trip to the Tomball/Northwest Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r121980038-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>121980038</t>
+  </si>
+  <si>
+    <t>12/22/2011</t>
+  </si>
+  <si>
+    <t>Perfect for a business trip</t>
+  </si>
+  <si>
+    <t>Property was very clean and well taken care of.  I had a complaint about the door to my room and they moved me without a problem.  The staff was friendly, easy to understand, and quick to accommodate my requests. Morning breakfast was pretty good too; actual scrambled eggs, etc.And then there was the shower.  They have fantastic water pressure here!  I absolutely loved it.  If I ever have to go back to Tomball, this is where I'll stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Property was very clean and well taken care of.  I had a complaint about the door to my room and they moved me without a problem.  The staff was friendly, easy to understand, and quick to accommodate my requests. Morning breakfast was pretty good too; actual scrambled eggs, etc.And then there was the shower.  They have fantastic water pressure here!  I absolutely loved it.  If I ever have to go back to Tomball, this is where I'll stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r120892917-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>120892917</t>
+  </si>
+  <si>
+    <t>11/21/2011</t>
+  </si>
+  <si>
+    <t>family oriented</t>
+  </si>
+  <si>
+    <t>This was my first experience in a Comfort Suites and all I have to say is that it was great.The lady in the front was very helpful.We were not satisfied with the room that we received so she moved us to another and it was alot better.I highly recommend this hotel for anyone making a trip to Tomball, Texas.We were there for the Renassance Festival and she was very accomodating.Breafkast was good with alot of healthful items there.We arrived very tired but after a good nights sleep on their beds we were refreshed and ready to go...MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>This was my first experience in a Comfort Suites and all I have to say is that it was great.The lady in the front was very helpful.We were not satisfied with the room that we received so she moved us to another and it was alot better.I highly recommend this hotel for anyone making a trip to Tomball, Texas.We were there for the Renassance Festival and she was very accomodating.Breafkast was good with alot of healthful items there.We arrived very tired but after a good nights sleep on their beds we were refreshed and ready to go...More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r119917236-Comfort_Suites_Tomball-Tomball_Texas.html</t>
@@ -1132,6 +1717,52 @@
     <t>Everyone was so diligent to accommodate our needs.  Fresh scrambled eggs at breakfast was so soothing.  Staff so friendly and energetic.  Beds great! Cleanliness and quality seems to be the standard.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r117333385-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>117333385</t>
+  </si>
+  <si>
+    <t>08/27/2011</t>
+  </si>
+  <si>
+    <t>Well ... it was so, so.</t>
+  </si>
+  <si>
+    <t>The Good: Rooms were clean.  AC, fridge, shower all worked well.  The Medium: Beds were a little hard.The Ugly:  We went to the icemakers numerous times (on all three floors) and never got more than about 6 pieces of ice.  When we complained at the front desk, we were told each time that they worked fine and someone must have emptied them out.  The excuse sounded rehearsed as if that's what management said to tell guests.The free breakfast was not that impressive.  They did have a waffle maker and the bacon was good.  They also had a limited selection of fruit.  STAY AWAY from the eggs.  The scrambled eggs were something I had never experienced.  when you bit into them, it seemed like water came out (like a sponge).  I wasn't the only one to make that type of comment.  And how on earth do you mess up a hard boiled ... this place had that figured out too!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>The Good: Rooms were clean.  AC, fridge, shower all worked well.  The Medium: Beds were a little hard.The Ugly:  We went to the icemakers numerous times (on all three floors) and never got more than about 6 pieces of ice.  When we complained at the front desk, we were told each time that they worked fine and someone must have emptied them out.  The excuse sounded rehearsed as if that's what management said to tell guests.The free breakfast was not that impressive.  They did have a waffle maker and the bacon was good.  They also had a limited selection of fruit.  STAY AWAY from the eggs.  The scrambled eggs were something I had never experienced.  when you bit into them, it seemed like water came out (like a sponge).  I wasn't the only one to make that type of comment.  And how on earth do you mess up a hard boiled ... this place had that figured out too!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r86445899-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>86445899</t>
+  </si>
+  <si>
+    <t>11/08/2010</t>
+  </si>
+  <si>
+    <t>A/C improved and better experience</t>
+  </si>
+  <si>
+    <t>I stayed at and reviewed this hotel in June 2009 and can honestly say everything I mentioned that was negative has been corrected.  I was extremely happy about that.
+First let me say that I really wanted to give this hotel a second try.  The hotel is anice one and was really hoping that my negative experiences were really just a feak occurance.  Broken A/C, etc.
+First let me say that at the front desk I was greeted by the most helpful and exceptionally nice hotel employee named Yami.  There are apparently two Comfort Suites hotels in Tomball.  I had accidentally booked the wrong one.  The one I accidentally booked was 5 miles away and had a similar address.  I realized this as I passed the "wrong" one and opted to keep going and see if I can move my room.  I got to the "correct" one and explained to Yami my dilema.  She stated she would call and in her opinion should be okay.  She had some trouble contacting the other hotel and kept trying over and over until she got someone.  She stated it may take a bit so I opted to go eat dinner and gave me very helpful directions.  When I returned she couldn't promise I wouldn't be penalized but then gave me another suggestion that actually worked out.  She really tried to help me out and didn't want me to be inconvenienced.  Apparently there were...I stayed at and reviewed this hotel in June 2009 and can honestly say everything I mentioned that was negative has been corrected.  I was extremely happy about that.First let me say that I really wanted to give this hotel a second try.  The hotel is anice one and was really hoping that my negative experiences were really just a feak occurance.  Broken A/C, etc.First let me say that at the front desk I was greeted by the most helpful and exceptionally nice hotel employee named Yami.  There are apparently two Comfort Suites hotels in Tomball.  I had accidentally booked the wrong one.  The one I accidentally booked was 5 miles away and had a similar address.  I realized this as I passed the "wrong" one and opted to keep going and see if I can move my room.  I got to the "correct" one and explained to Yami my dilema.  She stated she would call and in her opinion should be okay.  She had some trouble contacting the other hotel and kept trying over and over until she got someone.  She stated it may take a bit so I opted to go eat dinner and gave me very helpful directions.  When I returned she couldn't promise I wouldn't be penalized but then gave me another suggestion that actually worked out.  She really tried to help me out and didn't want me to be inconvenienced.  Apparently there were a huge bus full of kids that has been checked in and asked me if I wanted a room further away from them in case it got noisy, etc.  She was very helpful and really hope that management sees she is an asset.I had mentioned how hot my last stay was.  Well reading some other reviews seems like I wasn't the only one.  Well the hotel must have gotten this corrected.  The A/c blew nice and cold and I had no complaints.The room is large and spacious.  A nice living room area and fast high speed internet.  The room was also very clean and NO bed bugs.  At a 80 dollar rate for this size room at a nice NEW hotel cannot be beaten.  Would gladly recommend to anyone.  I also mentioned last time there is a LaQuinta and Holiday Inn Express.  Well the Holiday Inn Express I noticed has since changed to a Super 8 which are not known to be great so this hotel should definately see more traffic.  I will book my next business trip to Tomball here for sure.Next time I will definately take a picture.  When I remembered I had already had a un-made bed, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>I stayed at and reviewed this hotel in June 2009 and can honestly say everything I mentioned that was negative has been corrected.  I was extremely happy about that.
+First let me say that I really wanted to give this hotel a second try.  The hotel is anice one and was really hoping that my negative experiences were really just a feak occurance.  Broken A/C, etc.
+First let me say that at the front desk I was greeted by the most helpful and exceptionally nice hotel employee named Yami.  There are apparently two Comfort Suites hotels in Tomball.  I had accidentally booked the wrong one.  The one I accidentally booked was 5 miles away and had a similar address.  I realized this as I passed the "wrong" one and opted to keep going and see if I can move my room.  I got to the "correct" one and explained to Yami my dilema.  She stated she would call and in her opinion should be okay.  She had some trouble contacting the other hotel and kept trying over and over until she got someone.  She stated it may take a bit so I opted to go eat dinner and gave me very helpful directions.  When I returned she couldn't promise I wouldn't be penalized but then gave me another suggestion that actually worked out.  She really tried to help me out and didn't want me to be inconvenienced.  Apparently there were...I stayed at and reviewed this hotel in June 2009 and can honestly say everything I mentioned that was negative has been corrected.  I was extremely happy about that.First let me say that I really wanted to give this hotel a second try.  The hotel is anice one and was really hoping that my negative experiences were really just a feak occurance.  Broken A/C, etc.First let me say that at the front desk I was greeted by the most helpful and exceptionally nice hotel employee named Yami.  There are apparently two Comfort Suites hotels in Tomball.  I had accidentally booked the wrong one.  The one I accidentally booked was 5 miles away and had a similar address.  I realized this as I passed the "wrong" one and opted to keep going and see if I can move my room.  I got to the "correct" one and explained to Yami my dilema.  She stated she would call and in her opinion should be okay.  She had some trouble contacting the other hotel and kept trying over and over until she got someone.  She stated it may take a bit so I opted to go eat dinner and gave me very helpful directions.  When I returned she couldn't promise I wouldn't be penalized but then gave me another suggestion that actually worked out.  She really tried to help me out and didn't want me to be inconvenienced.  Apparently there were a huge bus full of kids that has been checked in and asked me if I wanted a room further away from them in case it got noisy, etc.  She was very helpful and really hope that management sees she is an asset.I had mentioned how hot my last stay was.  Well reading some other reviews seems like I wasn't the only one.  Well the hotel must have gotten this corrected.  The A/c blew nice and cold and I had no complaints.The room is large and spacious.  A nice living room area and fast high speed internet.  The room was also very clean and NO bed bugs.  At a 80 dollar rate for this size room at a nice NEW hotel cannot be beaten.  Would gladly recommend to anyone.  I also mentioned last time there is a LaQuinta and Holiday Inn Express.  Well the Holiday Inn Express I noticed has since changed to a Super 8 which are not known to be great so this hotel should definately see more traffic.  I will book my next business trip to Tomball here for sure.Next time I will definately take a picture.  When I remembered I had already had a un-made bed, etc.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r82616793-Comfort_Suites_Tomball-Tomball_Texas.html</t>
   </si>
   <si>
@@ -1192,6 +1823,51 @@
     <t>This hotel is very comfortable and a very good value for the Houston area.  Very convenient.  Great breakfast - probably as good as a hotel breakfast I've ever had.  Very friendly staff.  Pool and exercise room are nice.  Well-stocked rooms and very pleasant.  The couch and chair in the king suite makes it very comfortable for a longer stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r62243721-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>62243721</t>
+  </si>
+  <si>
+    <t>04/23/2010</t>
+  </si>
+  <si>
+    <t>Nice Retreat</t>
+  </si>
+  <si>
+    <t>Wanted to get out of town for an evening and this was the perfect place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>Taufiq U, General Manager at Comfort Suites Tomball, responded to this reviewResponded December 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2016</t>
+  </si>
+  <si>
+    <t>Wanted to get out of town for an evening and this was the perfect place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r61919415-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>61919415</t>
+  </si>
+  <si>
+    <t>04/19/2010</t>
+  </si>
+  <si>
+    <t>Pretty room, comfortable bed, but no hot water.</t>
+  </si>
+  <si>
+    <t>We enjoyed the room, the staff was friendly and helpful but there was no hot water when we arrived around 8:00 pm.  We were told they were working on it.  We went out to dinner and when we returned the desk clerk said he believed there was hot water, however we could not get the shower hot so apparently there was not.  I know that plumbing fails and it was not really the hotels fault, but it was disappointing not to be able to shower after a long hot day outside.  I'm sure it was probably an isolated incident.  I would stay there again if I was ever back in Tomball.MoreShow less</t>
+  </si>
+  <si>
+    <t>We enjoyed the room, the staff was friendly and helpful but there was no hot water when we arrived around 8:00 pm.  We were told they were working on it.  We went out to dinner and when we returned the desk clerk said he believed there was hot water, however we could not get the shower hot so apparently there was not.  I know that plumbing fails and it was not really the hotels fault, but it was disappointing not to be able to shower after a long hot day outside.  I'm sure it was probably an isolated incident.  I would stay there again if I was ever back in Tomball.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r61147944-Comfort_Suites_Tomball-Tomball_Texas.html</t>
   </si>
   <si>
@@ -1205,9 +1881,6 @@
   </si>
   <si>
     <t>The King Suite was very small, after pulling out the sofa bed the room was cut in half to the point of having to close the sofa bed to get to the bath room. The sofa bed had no sheet or blanket. We had to get that from the front desk, plus they had no pillows for it. The outside windows would shuy all the way. The indoor pool was closed during our stay there. The fitness center was also closed.</t>
-  </si>
-  <si>
-    <t>April 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r32178231-Comfort_Suites_Tomball-Tomball_Texas.html</t>
@@ -1257,6 +1930,55 @@
 I reserved a room with 2 queen beds, coffee maker, mini refrigerator, hairdryer, etc. I checked in at the front desk around 3 p.m. and afterwards we started unloading our stuff. The guy at the front desk asked if we wanted a room on the middle or top floor. I decided to get one on the top floor thinking my kids may love that. What a mistake! The room temperature was almost unbearable! At first I thought it was just me from unloading our stuff. Then I thought maybe it was hot considering the sun was "hitting" the rooftop. We had to leave and were gone for most of the day. I thought by the time we returned it would be cool. It was hot when we returned! Our AC was set on 60 and I bet it was every bit of 80 in that room. I didn't complain, because I didn't have time. We left again for about an hour. The room was still hot when we returned! To make matters worse, we had to use the stairs when we returned, because the elevator quit working. There wasn't anyway I...We stayed at the Comfort Suites in Tomball Texas. It's off of Hwy 249 north and on Michel Rd. Almost on the corner of 249 north and Michel Rd. It can be seen from Hwy 249 north and south if you are looking for it. Its behind another establishment.I reserved a room with 2 queen beds, coffee maker, mini refrigerator, hairdryer, etc. I checked in at the front desk around 3 p.m. and afterwards we started unloading our stuff. The guy at the front desk asked if we wanted a room on the middle or top floor. I decided to get one on the top floor thinking my kids may love that. What a mistake! The room temperature was almost unbearable! At first I thought it was just me from unloading our stuff. Then I thought maybe it was hot considering the sun was "hitting" the rooftop. We had to leave and were gone for most of the day. I thought by the time we returned it would be cool. It was hot when we returned! Our AC was set on 60 and I bet it was every bit of 80 in that room. I didn't complain, because I didn't have time. We left again for about an hour. The room was still hot when we returned! To make matters worse, we had to use the stairs when we returned, because the elevator quit working. There wasn't anyway I was going to walk up and down those stairs. Once was bad enough. My husband went downstairs and asked if we could get a room on the bottom floor. We got another room without any problems, but we had to settle for a one king size bed with a sofa bed. Our room on the bottom floor was a whole lot cooler. The indoor swimming pool, OMG! We walked inside the indoor swimming pool area and the heat almost knocked us completely out! Much worse than the top room floor. I could barely breathe! I felt like we walked into a sauna room. We walked out and I went to the front desk about it. The guy said we could open the windows. I didn't think that would work, it did though. I wouldn't recommend anyone to stay here for the price I paid. What I paid, we shouldn't have experienced the problems we faced here. Over $100 per night! We made the best of it thank goodness. I wasn't about to let this place ruin a perfectly good thing why we were visiting this area for.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r29733944-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>29733944</t>
+  </si>
+  <si>
+    <t>05/10/2009</t>
+  </si>
+  <si>
+    <t>ROOMS CONSISTANTLY HOT</t>
+  </si>
+  <si>
+    <t>Upon arriving at the hotel the lobby was comfortable and clean.  I had asked for a first floor and was told non were available. Upon getting off the elevator on the second floor I was hit by a burst of hot air.  I dropped off my luggage and turnned down the room air conditioner.  It was set at 80 the outside tempurature was around 90 I turned it down to 70.  I dropped by the front desk and made a comment to the front desk that the hallway was so hot it took my breath away,  He commented he would check into it.  I arrived back at the room 4 hours later got off the elevator into a burst of hot air,I walked into my room and it was comfortable.  About 11:00 the room started heating up.  I noticed the heat comming from the hallway side of the room.  I turned my room unit to 60 and my room never cooled below 78.   The next morning at breakfast I commented to my employee who stayed across the hall how my room got  hot about midnight.  He said his did too.  I went back to the desk and took the clerk on duty that the hallway was extreamly warm.  It was actually cooler outside at 79 degrees(humidity 93 percent). The clerk said he would see if he could get the units turned on.  I commented that with the outside tempuature at...Upon arriving at the hotel the lobby was comfortable and clean.  I had asked for a first floor and was told non were available. Upon getting off the elevator on the second floor I was hit by a burst of hot air.  I dropped off my luggage and turnned down the room air conditioner.  It was set at 80 the outside tempurature was around 90 I turned it down to 70.  I dropped by the front desk and made a comment to the front desk that the hallway was so hot it took my breath away,  He commented he would check into it.  I arrived back at the room 4 hours later got off the elevator into a burst of hot air,I walked into my room and it was comfortable.  About 11:00 the room started heating up.  I noticed the heat comming from the hallway side of the room.  I turned my room unit to 60 and my room never cooled below 78.   The next morning at breakfast I commented to my employee who stayed across the hall how my room got  hot about midnight.  He said his did too.  I went back to the desk and took the clerk on duty that the hallway was extreamly warm.  It was actually cooler outside at 79 degrees(humidity 93 percent). The clerk said he would see if he could get the units turned on.  I commented that with the outside tempuature at 90 plus my room would not cool with the room unit only.  When I arrived back at my room the housekeeping staff  had turned the room unit to 80 and the room was again hot. Again with hallway air conditioner. I left went by the desk commented again on the heat.  The new clerk said they woud check into it,  At 11:00pm my room again had heated to above 79.  The next day I talked with the desk clerk about the lobby being cool and the 2nd floor had no air.  said he would check into it.  Nothing happened.  Not even a call from the desk to check about the tempuature. I complained that evening on my way to dinner again about the hot hallway.  As I walked in from dinner the desk clerk told me he had turned the hallway units on.  I felt a small difference in the hallway.  But again at 11:00 my room was at 79 degrees.  I walked into the hallway and found the air units turned off. Called the front desk the clerk turned the unit on I checked several times and it was blowing air--not cool air.  If you plan on staying here get the first floor at least it is cool.  When I called again the next night to the front desk I was told there where no rooms on the first floor.  I counted 11 cars in the parking lot. I had stayed here the first month this hotel was open when it was staffed by the Comfortopening staff and had a good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Upon arriving at the hotel the lobby was comfortable and clean.  I had asked for a first floor and was told non were available. Upon getting off the elevator on the second floor I was hit by a burst of hot air.  I dropped off my luggage and turnned down the room air conditioner.  It was set at 80 the outside tempurature was around 90 I turned it down to 70.  I dropped by the front desk and made a comment to the front desk that the hallway was so hot it took my breath away,  He commented he would check into it.  I arrived back at the room 4 hours later got off the elevator into a burst of hot air,I walked into my room and it was comfortable.  About 11:00 the room started heating up.  I noticed the heat comming from the hallway side of the room.  I turned my room unit to 60 and my room never cooled below 78.   The next morning at breakfast I commented to my employee who stayed across the hall how my room got  hot about midnight.  He said his did too.  I went back to the desk and took the clerk on duty that the hallway was extreamly warm.  It was actually cooler outside at 79 degrees(humidity 93 percent). The clerk said he would see if he could get the units turned on.  I commented that with the outside tempuature at...Upon arriving at the hotel the lobby was comfortable and clean.  I had asked for a first floor and was told non were available. Upon getting off the elevator on the second floor I was hit by a burst of hot air.  I dropped off my luggage and turnned down the room air conditioner.  It was set at 80 the outside tempurature was around 90 I turned it down to 70.  I dropped by the front desk and made a comment to the front desk that the hallway was so hot it took my breath away,  He commented he would check into it.  I arrived back at the room 4 hours later got off the elevator into a burst of hot air,I walked into my room and it was comfortable.  About 11:00 the room started heating up.  I noticed the heat comming from the hallway side of the room.  I turned my room unit to 60 and my room never cooled below 78.   The next morning at breakfast I commented to my employee who stayed across the hall how my room got  hot about midnight.  He said his did too.  I went back to the desk and took the clerk on duty that the hallway was extreamly warm.  It was actually cooler outside at 79 degrees(humidity 93 percent). The clerk said he would see if he could get the units turned on.  I commented that with the outside tempuature at 90 plus my room would not cool with the room unit only.  When I arrived back at my room the housekeeping staff  had turned the room unit to 80 and the room was again hot. Again with hallway air conditioner. I left went by the desk commented again on the heat.  The new clerk said they woud check into it,  At 11:00pm my room again had heated to above 79.  The next day I talked with the desk clerk about the lobby being cool and the 2nd floor had no air.  said he would check into it.  Nothing happened.  Not even a call from the desk to check about the tempuature. I complained that evening on my way to dinner again about the hot hallway.  As I walked in from dinner the desk clerk told me he had turned the hallway units on.  I felt a small difference in the hallway.  But again at 11:00 my room was at 79 degrees.  I walked into the hallway and found the air units turned off. Called the front desk the clerk turned the unit on I checked several times and it was blowing air--not cool air.  If you plan on staying here get the first floor at least it is cool.  When I called again the next night to the front desk I was told there where no rooms on the first floor.  I counted 11 cars in the parking lot. I had stayed here the first month this hotel was open when it was staffed by the Comfortopening staff and had a good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r20756499-Comfort_Suites_Tomball-Tomball_Texas.html</t>
+  </si>
+  <si>
+    <t>20756499</t>
+  </si>
+  <si>
+    <t>10/09/2008</t>
+  </si>
+  <si>
+    <t>Horrible Service, decent Accomodations</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a September wedding that DH and I were both in. First of all, the hotel has maintained a new feel, and accomodations are nothing fancy, but  clean and comfortable. I booked this hotel based on proximity to the wedding venue and the TA reviews, and was happy with that.
+The pool area is indoor and stuffy, and the workout room is small. Breakfast is sub-par, but there's a grocery store and a Wal-mart within 2 blocks of the hotel, though I don't recommend walking. The hotel is on a busy street, and there are no sidewalks.
+My problem is this - 2 weeks prior to check-in, I contacted the hotel at about 1pm on a Thursday afternoon (NOT during a rush time) to ensure that the room was put in my name since the bride reserved several rooms (NOT  HELD, she made a CC reservation) in her name, and I wanted things to go smoothly upon checking in. The gentleman I spoke with was curt, short, and downright rude. He told me that I shouldn't worry, checkin would go smoothly. I explained that I was not worried, I am sure it would be fine, but I would prefer to make the changes on the phone now so that I didn't have to after 12 hours of traveling. He did not make my requested update, informed me that he had no time to talk to...I stayed at this hotel for a September wedding that DH and I were both in. First of all, the hotel has maintained a new feel, and accomodations are nothing fancy, but  clean and comfortable. I booked this hotel based on proximity to the wedding venue and the TA reviews, and was happy with that.The pool area is indoor and stuffy, and the workout room is small. Breakfast is sub-par, but there's a grocery store and a Wal-mart within 2 blocks of the hotel, though I don't recommend walking. The hotel is on a busy street, and there are no sidewalks.My problem is this - 2 weeks prior to check-in, I contacted the hotel at about 1pm on a Thursday afternoon (NOT during a rush time) to ensure that the room was put in my name since the bride reserved several rooms (NOT  HELD, she made a CC reservation) in her name, and I wanted things to go smoothly upon checking in. The gentleman I spoke with was curt, short, and downright rude. He told me that I shouldn't worry, checkin would go smoothly. I explained that I was not worried, I am sure it would be fine, but I would prefer to make the changes on the phone now so that I didn't have to after 12 hours of traveling. He did not make my requested update, informed me that he had no time to talk to me, took my name and number and  proceeded to hang the phone! I figured that maybe he was having a bad day, and waited for him to call back - which he never did. Tying up loose ends and preparing cross-country travel kept me busy, so I figured I would ask for the manager if I had trouble checking in. Based on my previous phone experience, I was not surprised when it took over 40 minutes to check in on a Wednesday around 4pm that could have been avoided if I had been properly helped. I was surprised, however, that the gentleman on the phone, Raza Minizheri (sp??) was the head manager! I have never received such treatment from a service manager in my life. And I wasn't the only one, he hung up on another member of our party, and questioned her intensely on why a single person required a double room. It was none of his business to begin with, and she was paying for the 2 people! (the second was coming the day of the wedding). All of our reservations were messed up, and nothing went smoothly. Considering that we had several rooms, you would think that they would go out of their way to make our stay easier - that didn't happen! The hotel was not even close to capacity on the Wednesday and Thursday of our stay, so the poor service was inexcusable in my opinion.Like I prefaced, we still had pleasant accomodations, and chose to avoid the manager at all costs. The rest of the staff was acceptable, and we still enjoyed ourselves. I also attempted to contact the corporate office, who sent me a letter saying they were "checking into it" and have heard nothing since. HORRIBLE SERVICE.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>Taufiq U, General Manager at Comfort Suites Tomball, responded to this reviewResponded December 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a September wedding that DH and I were both in. First of all, the hotel has maintained a new feel, and accomodations are nothing fancy, but  clean and comfortable. I booked this hotel based on proximity to the wedding venue and the TA reviews, and was happy with that.
+The pool area is indoor and stuffy, and the workout room is small. Breakfast is sub-par, but there's a grocery store and a Wal-mart within 2 blocks of the hotel, though I don't recommend walking. The hotel is on a busy street, and there are no sidewalks.
+My problem is this - 2 weeks prior to check-in, I contacted the hotel at about 1pm on a Thursday afternoon (NOT during a rush time) to ensure that the room was put in my name since the bride reserved several rooms (NOT  HELD, she made a CC reservation) in her name, and I wanted things to go smoothly upon checking in. The gentleman I spoke with was curt, short, and downright rude. He told me that I shouldn't worry, checkin would go smoothly. I explained that I was not worried, I am sure it would be fine, but I would prefer to make the changes on the phone now so that I didn't have to after 12 hours of traveling. He did not make my requested update, informed me that he had no time to talk to...I stayed at this hotel for a September wedding that DH and I were both in. First of all, the hotel has maintained a new feel, and accomodations are nothing fancy, but  clean and comfortable. I booked this hotel based on proximity to the wedding venue and the TA reviews, and was happy with that.The pool area is indoor and stuffy, and the workout room is small. Breakfast is sub-par, but there's a grocery store and a Wal-mart within 2 blocks of the hotel, though I don't recommend walking. The hotel is on a busy street, and there are no sidewalks.My problem is this - 2 weeks prior to check-in, I contacted the hotel at about 1pm on a Thursday afternoon (NOT during a rush time) to ensure that the room was put in my name since the bride reserved several rooms (NOT  HELD, she made a CC reservation) in her name, and I wanted things to go smoothly upon checking in. The gentleman I spoke with was curt, short, and downright rude. He told me that I shouldn't worry, checkin would go smoothly. I explained that I was not worried, I am sure it would be fine, but I would prefer to make the changes on the phone now so that I didn't have to after 12 hours of traveling. He did not make my requested update, informed me that he had no time to talk to me, took my name and number and  proceeded to hang the phone! I figured that maybe he was having a bad day, and waited for him to call back - which he never did. Tying up loose ends and preparing cross-country travel kept me busy, so I figured I would ask for the manager if I had trouble checking in. Based on my previous phone experience, I was not surprised when it took over 40 minutes to check in on a Wednesday around 4pm that could have been avoided if I had been properly helped. I was surprised, however, that the gentleman on the phone, Raza Minizheri (sp??) was the head manager! I have never received such treatment from a service manager in my life. And I wasn't the only one, he hung up on another member of our party, and questioned her intensely on why a single person required a double room. It was none of his business to begin with, and she was paying for the 2 people! (the second was coming the day of the wedding). All of our reservations were messed up, and nothing went smoothly. Considering that we had several rooms, you would think that they would go out of their way to make our stay easier - that didn't happen! The hotel was not even close to capacity on the Wednesday and Thursday of our stay, so the poor service was inexcusable in my opinion.Like I prefaced, we still had pleasant accomodations, and chose to avoid the manager at all costs. The rest of the staff was acceptable, and we still enjoyed ourselves. I also attempted to contact the corporate office, who sent me a letter saying they were "checking into it" and have heard nothing since. HORRIBLE SERVICE.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56780-d816814-r17139128-Comfort_Suites_Tomball-Tomball_Texas.html</t>
   </si>
   <si>
@@ -1273,12 +1995,6 @@
   </si>
   <si>
     <t>June 2008</t>
-  </si>
-  <si>
-    <t>Taufiq U, General Manager at Comfort Suites Tomball, responded to this reviewResponded December 3, 2016</t>
-  </si>
-  <si>
-    <t>Responded December 3, 2016</t>
   </si>
   <si>
     <t>I booked the room for $80. What a surprise. The place was brand new, fresh and extremely comfortable. The rooms are large and fully equipped. We had two queen beds and a sofa sleeper. There was plenty of room even with the sofa sleeper opened. The bathroom is huge. What a great stay we had. It was also centrally located and very convenient to everything you could possibly want or need. The management was very pleasant and friendly. I have stayed in places far more expensive and have never had such a great stay. We were there for two nights and wished it could have been longer. The beds are soft and comfortable, even the sofa sleeper. The halls are well lit. The lobby is very tastefully decorated. It was all just so fresh and airy. It's a "no smoking" hotel and that was a plus. They even had extended cable service. Overall it was one of the best hotel stays I've had in a long time and I've had a LOT of stays in the past two years. I would not hesitate to book at this hotel and HIGHLY recommend it!!!!More</t>
@@ -1834,7 +2550,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1895,7 +2611,7 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
         <v>62</v>
@@ -1903,23 +2619,27 @@
       <c r="O3" t="s">
         <v>53</v>
       </c>
-      <c r="P3" t="s"/>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1935,7 +2655,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1944,49 +2664,43 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4</v>
-      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -2002,7 +2716,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2011,46 +2725,40 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s">
         <v>80</v>
@@ -2093,34 +2801,34 @@
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
         <v>53</v>
       </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y6" t="s">
         <v>87</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -2136,58 +2844,54 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>89</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>90</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>91</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>92</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>93</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>76</v>
       </c>
       <c r="O7" t="s">
         <v>53</v>
       </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
         <v>94</v>
-      </c>
-      <c r="X7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -2203,58 +2907,52 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
         <v>97</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>98</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>99</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>100</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O8" t="s">
         <v>101</v>
       </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>102</v>
-      </c>
-      <c r="O8" t="s">
-        <v>53</v>
-      </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
         <v>103</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>104</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -2270,41 +2968,43 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>106</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>107</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>108</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>109</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>110</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>102</v>
       </c>
       <c r="O9" t="s">
         <v>111</v>
       </c>
-      <c r="P9" t="s"/>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>5</v>
@@ -2313,13 +3013,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="X9" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
@@ -2335,7 +3035,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2344,43 +3044,49 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s">
-        <v>118</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="X10" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
@@ -2396,7 +3102,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2405,43 +3111,49 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s">
-        <v>126</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="X11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Y11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -2457,7 +3169,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2466,49 +3178,49 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="O12" t="s">
-        <v>77</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="X12" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
@@ -2524,52 +3236,58 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
         <v>136</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
-        <v>137</v>
-      </c>
-      <c r="J13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K13" t="s">
-        <v>139</v>
-      </c>
-      <c r="L13" t="s">
-        <v>140</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>125</v>
-      </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="X13" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
@@ -2585,7 +3303,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2594,43 +3312,49 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="O14" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="X14" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Y14" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15">
@@ -2646,7 +3370,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2655,43 +3379,47 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="J15" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>153</v>
       </c>
-      <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="s">
-        <v>154</v>
-      </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="X15" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Y15" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
@@ -2707,7 +3435,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2716,49 +3444,43 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="J16" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="O16" t="s">
-        <v>118</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="X16" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Y16" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17">
@@ -2774,7 +3496,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2783,47 +3505,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="O17" t="s">
         <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="X17" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="Y17" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18">
@@ -2839,7 +3557,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2848,49 +3566,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="J18" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" t="s">
+        <v>180</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
         <v>174</v>
       </c>
-      <c r="K18" t="s">
-        <v>175</v>
-      </c>
-      <c r="L18" t="s">
-        <v>176</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4</v>
-      </c>
-      <c r="N18" t="s">
-        <v>177</v>
-      </c>
       <c r="O18" t="s">
-        <v>118</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>4</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="X18" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="Y18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
@@ -2906,7 +3618,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2915,25 +3627,25 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2945,13 +3657,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="X19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Y19" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20">
@@ -2967,7 +3679,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2976,31 +3688,31 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J20" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
@@ -3012,13 +3724,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="X20" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y20" t="s">
         <v>196</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="21">
@@ -3034,58 +3746,52 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
         <v>198</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>199</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>200</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>201</v>
       </c>
-      <c r="L21" t="s">
-        <v>202</v>
-      </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="O21" t="s">
-        <v>118</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="X21" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="Y21" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22">
@@ -3101,56 +3807,58 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>204</v>
+      </c>
+      <c r="J22" t="s">
+        <v>205</v>
+      </c>
+      <c r="K22" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" t="s">
         <v>207</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
-        <v>208</v>
-      </c>
-      <c r="J22" t="s">
-        <v>209</v>
-      </c>
-      <c r="K22" t="s">
-        <v>210</v>
-      </c>
-      <c r="L22" t="s">
-        <v>211</v>
-      </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="X22" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="Y22" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23">
@@ -3166,7 +3874,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3175,25 +3883,25 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="J23" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K23" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="O23" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3205,13 +3913,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="X23" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="Y23" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24">
@@ -3227,7 +3935,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3236,49 +3944,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="J24" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="K24" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="O24" t="s">
-        <v>126</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>3</v>
-      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>3</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
+        <v>188</v>
+      </c>
+      <c r="X24" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y24" t="s">
         <v>221</v>
-      </c>
-      <c r="X24" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="25">
@@ -3294,7 +3996,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3303,53 +4005,43 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="J25" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="K25" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="O25" t="s">
         <v>53</v>
       </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>4</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4</v>
-      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="X25" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="Y25" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
@@ -3365,7 +4057,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3374,38 +4066,34 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="J26" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="O26" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
       </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q26" t="s"/>
       <c r="R26" t="n">
         <v>5</v>
       </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
         <v>5</v>
@@ -3414,13 +4102,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="X26" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="Y26" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27">
@@ -3436,7 +4124,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3445,43 +4133,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="J27" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="K27" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O27" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>246</v>
+        <v>137</v>
       </c>
       <c r="X27" t="s">
-        <v>247</v>
+        <v>138</v>
       </c>
       <c r="Y27" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28">
@@ -3497,7 +4191,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3506,53 +4200,49 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="J28" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="K28" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O28" t="s">
         <v>53</v>
       </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="X28" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Y28" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29">
@@ -3568,7 +4258,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3577,53 +4267,47 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="J29" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="L29" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="O29" t="s">
         <v>53</v>
       </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
       <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="X29" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="Y29" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30">
@@ -3639,7 +4323,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3648,25 +4332,25 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="J30" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="K30" t="s">
-        <v>166</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="O30" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3674,12 +4358,8 @@
       <c r="Q30" t="n">
         <v>4</v>
       </c>
-      <c r="R30" t="n">
-        <v>4</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>4</v>
@@ -3694,7 +4374,7 @@
         <v>268</v>
       </c>
       <c r="Y30" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31">
@@ -3710,7 +4390,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3719,53 +4399,43 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J31" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K31" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="O31" t="s">
         <v>53</v>
       </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>4</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="X31" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Y31" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32">
@@ -3781,47 +4451,43 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>278</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>279</v>
+      </c>
+      <c r="J32" t="s">
+        <v>280</v>
+      </c>
+      <c r="K32" t="s">
+        <v>281</v>
+      </c>
+      <c r="L32" t="s">
+        <v>282</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
         <v>283</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
-        <v>284</v>
-      </c>
-      <c r="J32" t="s">
-        <v>285</v>
-      </c>
-      <c r="K32" t="s">
-        <v>286</v>
-      </c>
-      <c r="L32" t="s">
-        <v>287</v>
-      </c>
-      <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s">
-        <v>288</v>
-      </c>
       <c r="O32" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q32" t="n">
         <v>5</v>
       </c>
-      <c r="R32" t="n">
-        <v>4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>5</v>
@@ -3830,13 +4496,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="X32" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Y32" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33">
@@ -3852,58 +4518,52 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>287</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>288</v>
+      </c>
+      <c r="J33" t="s">
+        <v>289</v>
+      </c>
+      <c r="K33" t="s">
+        <v>290</v>
+      </c>
+      <c r="L33" t="s">
+        <v>291</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>283</v>
+      </c>
+      <c r="O33" t="s">
+        <v>160</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
         <v>292</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="X33" t="s">
         <v>293</v>
       </c>
-      <c r="J33" t="s">
+      <c r="Y33" t="s">
         <v>294</v>
-      </c>
-      <c r="K33" t="s">
-        <v>295</v>
-      </c>
-      <c r="L33" t="s">
-        <v>296</v>
-      </c>
-      <c r="M33" t="n">
-        <v>3</v>
-      </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
-      <c r="P33" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4</v>
-      </c>
-      <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>2</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="s">
-        <v>289</v>
-      </c>
-      <c r="X33" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="34">
@@ -3919,47 +4579,43 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>295</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>296</v>
+      </c>
+      <c r="J34" t="s">
+        <v>297</v>
+      </c>
+      <c r="K34" t="s">
         <v>298</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="L34" t="s">
         <v>299</v>
       </c>
-      <c r="J34" t="s">
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
         <v>300</v>
       </c>
-      <c r="K34" t="s">
-        <v>301</v>
-      </c>
-      <c r="L34" t="s">
-        <v>302</v>
-      </c>
-      <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>288</v>
-      </c>
       <c r="O34" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
         <v>5</v>
@@ -3968,10 +4624,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="X34" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="Y34" t="s">
         <v>303</v>
@@ -4011,41 +4667,37 @@
         <v>308</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
         <v>309</v>
       </c>
       <c r="O35" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="X35" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="Y35" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36">
@@ -4061,7 +4713,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4070,38 +4722,32 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="J36" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="K36" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L36" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N36" t="s">
         <v>309</v>
       </c>
       <c r="O36" t="s">
-        <v>77</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="n">
         <v>3</v>
       </c>
-      <c r="R36" t="n">
-        <v>3</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2</v>
-      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>5</v>
@@ -4110,13 +4756,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="X36" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="Y36" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37">
@@ -4132,7 +4778,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4141,25 +4787,25 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="J37" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K37" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="L37" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="O37" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4171,13 +4817,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="X37" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="Y37" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38">
@@ -4193,7 +4839,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4202,53 +4848,49 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="J38" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K38" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L38" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="O38" t="s">
         <v>111</v>
       </c>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="X38" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="Y38" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39">
@@ -4264,7 +4906,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4273,53 +4915,43 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="J39" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K39" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L39" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O39" t="s">
-        <v>118</v>
-      </c>
-      <c r="P39" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="X39" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Y39" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40">
@@ -4335,7 +4967,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4344,50 +4976,46 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J40" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K40" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L40" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q40" t="s"/>
       <c r="R40" t="n">
-        <v>4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="X40" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="Y40" t="s">
         <v>349</v>
@@ -4427,21 +5055,25 @@
         <v>354</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
-      </c>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>332</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
       <c r="P41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q41" t="n">
         <v>4</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
@@ -4451,13 +5083,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="X41" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="Y41" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42">
@@ -4473,7 +5105,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4482,49 +5114,43 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J42" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K42" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L42" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
-      <c r="N42" t="s"/>
-      <c r="O42" t="s"/>
-      <c r="P42" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2</v>
-      </c>
-      <c r="R42" t="n">
-        <v>3</v>
-      </c>
-      <c r="S42" t="n">
-        <v>3</v>
-      </c>
+      <c r="N42" t="s">
+        <v>363</v>
+      </c>
+      <c r="O42" t="s">
+        <v>167</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>1</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="X42" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="Y42" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="43">
@@ -4540,7 +5166,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4549,49 +5175,45 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="J43" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="K43" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="L43" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
-      </c>
-      <c r="N43" t="s">
-        <v>367</v>
-      </c>
-      <c r="O43" t="s">
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
       <c r="P43" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>338</v>
-      </c>
-      <c r="X43" t="s">
-        <v>339</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44">
@@ -4607,7 +5229,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4616,25 +5238,25 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="J44" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K44" t="s">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="L44" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="O44" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4656,13 +5278,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="X44" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="Y44" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45">
@@ -4678,62 +5300,52 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
+        <v>380</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>381</v>
+      </c>
+      <c r="J45" t="s">
+        <v>382</v>
+      </c>
+      <c r="K45" t="s">
+        <v>383</v>
+      </c>
+      <c r="L45" t="s">
+        <v>384</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
         <v>376</v>
       </c>
-      <c r="G45" t="s">
-        <v>46</v>
-      </c>
-      <c r="H45" t="s">
-        <v>47</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="O45" t="s">
+        <v>167</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
         <v>377</v>
       </c>
-      <c r="J45" t="s">
+      <c r="X45" t="s">
         <v>378</v>
       </c>
-      <c r="K45" t="s">
-        <v>379</v>
-      </c>
-      <c r="L45" t="s">
-        <v>380</v>
-      </c>
-      <c r="M45" t="n">
-        <v>3</v>
-      </c>
-      <c r="N45" t="s">
-        <v>381</v>
-      </c>
-      <c r="O45" t="s">
-        <v>53</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>4</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
-      <c r="S45" t="n">
-        <v>3</v>
-      </c>
-      <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>3</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="s">
-        <v>329</v>
-      </c>
-      <c r="X45" t="s">
-        <v>330</v>
-      </c>
       <c r="Y45" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46">
@@ -4749,7 +5361,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4758,25 +5370,25 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="J46" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K46" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L46" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="O46" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4798,13 +5410,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="X46" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="Y46" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="47">
@@ -4820,7 +5432,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4829,49 +5441,53 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J47" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K47" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L47" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="O47" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="P47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R47" t="n">
         <v>3</v>
       </c>
       <c r="S47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>377</v>
+      </c>
+      <c r="X47" t="s">
+        <v>378</v>
+      </c>
       <c r="Y47" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48">
@@ -4887,7 +5503,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4896,49 +5512,53 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="J48" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K48" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L48" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="M48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="O48" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="P48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>405</v>
+      </c>
+      <c r="X48" t="s">
+        <v>406</v>
+      </c>
       <c r="Y48" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="49">
@@ -4954,7 +5574,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4963,27 +5583,31 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="J49" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K49" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="L49" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
+      <c r="N49" t="s">
+        <v>413</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
       <c r="P49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R49" t="n">
         <v>5</v>
@@ -4993,15 +5617,19 @@
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>405</v>
+      </c>
+      <c r="X49" t="s">
+        <v>406</v>
+      </c>
       <c r="Y49" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50">
@@ -5017,7 +5645,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5026,51 +5654,53 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="J50" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="K50" t="s">
-        <v>411</v>
+        <v>255</v>
       </c>
       <c r="L50" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
-      </c>
-      <c r="P50" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
       <c r="Q50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="X50" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="Y50" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51">
@@ -5086,7 +5716,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5095,39 +5725,2377 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="J51" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="K51" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L51" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
-      </c>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
-      <c r="P51" t="s"/>
-      <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
-      <c r="S51" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>426</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
       <c r="T51" t="s"/>
-      <c r="U51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="X51" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="Y51" t="s">
-        <v>422</v>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>428</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>429</v>
+      </c>
+      <c r="J52" t="s">
+        <v>430</v>
+      </c>
+      <c r="K52" t="s">
+        <v>431</v>
+      </c>
+      <c r="L52" t="s">
+        <v>432</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>426</v>
+      </c>
+      <c r="O52" t="s">
+        <v>167</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>405</v>
+      </c>
+      <c r="X52" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>434</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>435</v>
+      </c>
+      <c r="J53" t="s">
+        <v>436</v>
+      </c>
+      <c r="K53" t="s">
+        <v>437</v>
+      </c>
+      <c r="L53" t="s">
+        <v>438</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>439</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>405</v>
+      </c>
+      <c r="X53" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>441</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>442</v>
+      </c>
+      <c r="J54" t="s">
+        <v>443</v>
+      </c>
+      <c r="K54" t="s">
+        <v>444</v>
+      </c>
+      <c r="L54" t="s">
+        <v>445</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>446</v>
+      </c>
+      <c r="O54" t="s">
+        <v>167</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>249</v>
+      </c>
+      <c r="X54" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>448</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>449</v>
+      </c>
+      <c r="J55" t="s">
+        <v>450</v>
+      </c>
+      <c r="K55" t="s">
+        <v>451</v>
+      </c>
+      <c r="L55" t="s">
+        <v>452</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>249</v>
+      </c>
+      <c r="X55" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>454</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>455</v>
+      </c>
+      <c r="J56" t="s">
+        <v>456</v>
+      </c>
+      <c r="K56" t="s">
+        <v>457</v>
+      </c>
+      <c r="L56" t="s">
+        <v>458</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>446</v>
+      </c>
+      <c r="O56" t="s">
+        <v>111</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>249</v>
+      </c>
+      <c r="X56" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>460</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>461</v>
+      </c>
+      <c r="J57" t="s">
+        <v>462</v>
+      </c>
+      <c r="K57" t="s">
+        <v>463</v>
+      </c>
+      <c r="L57" t="s">
+        <v>464</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>465</v>
+      </c>
+      <c r="O57" t="s">
+        <v>111</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>249</v>
+      </c>
+      <c r="X57" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>467</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>468</v>
+      </c>
+      <c r="J58" t="s">
+        <v>469</v>
+      </c>
+      <c r="K58" t="s">
+        <v>470</v>
+      </c>
+      <c r="L58" t="s">
+        <v>471</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>472</v>
+      </c>
+      <c r="O58" t="s">
+        <v>167</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>249</v>
+      </c>
+      <c r="X58" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>474</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>475</v>
+      </c>
+      <c r="J59" t="s">
+        <v>476</v>
+      </c>
+      <c r="K59" t="s">
+        <v>477</v>
+      </c>
+      <c r="L59" t="s">
+        <v>478</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>479</v>
+      </c>
+      <c r="O59" t="s">
+        <v>167</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>249</v>
+      </c>
+      <c r="X59" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>481</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>482</v>
+      </c>
+      <c r="J60" t="s">
+        <v>476</v>
+      </c>
+      <c r="K60" t="s">
+        <v>483</v>
+      </c>
+      <c r="L60" t="s">
+        <v>484</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>479</v>
+      </c>
+      <c r="O60" t="s">
+        <v>111</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>405</v>
+      </c>
+      <c r="X60" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>486</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>487</v>
+      </c>
+      <c r="J61" t="s">
+        <v>488</v>
+      </c>
+      <c r="K61" t="s">
+        <v>489</v>
+      </c>
+      <c r="L61" t="s">
+        <v>490</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>491</v>
+      </c>
+      <c r="O61" t="s">
+        <v>160</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>405</v>
+      </c>
+      <c r="X61" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>493</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>494</v>
+      </c>
+      <c r="J62" t="s">
+        <v>495</v>
+      </c>
+      <c r="K62" t="s">
+        <v>496</v>
+      </c>
+      <c r="L62" t="s">
+        <v>497</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>479</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>499</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>500</v>
+      </c>
+      <c r="J63" t="s">
+        <v>501</v>
+      </c>
+      <c r="K63" t="s">
+        <v>502</v>
+      </c>
+      <c r="L63" t="s">
+        <v>503</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>504</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>505</v>
+      </c>
+      <c r="X63" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>508</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>509</v>
+      </c>
+      <c r="J64" t="s">
+        <v>510</v>
+      </c>
+      <c r="K64" t="s">
+        <v>511</v>
+      </c>
+      <c r="L64" t="s">
+        <v>512</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>504</v>
+      </c>
+      <c r="O64" t="s">
+        <v>160</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>513</v>
+      </c>
+      <c r="X64" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>516</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>517</v>
+      </c>
+      <c r="J65" t="s">
+        <v>518</v>
+      </c>
+      <c r="K65" t="s">
+        <v>519</v>
+      </c>
+      <c r="L65" t="s">
+        <v>520</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>521</v>
+      </c>
+      <c r="O65" t="s">
+        <v>167</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>505</v>
+      </c>
+      <c r="X65" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>523</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>524</v>
+      </c>
+      <c r="J66" t="s">
+        <v>525</v>
+      </c>
+      <c r="K66" t="s">
+        <v>526</v>
+      </c>
+      <c r="L66" t="s">
+        <v>527</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>528</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>529</v>
+      </c>
+      <c r="X66" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>532</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>533</v>
+      </c>
+      <c r="J67" t="s">
+        <v>534</v>
+      </c>
+      <c r="K67" t="s">
+        <v>535</v>
+      </c>
+      <c r="L67" t="s">
+        <v>536</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>528</v>
+      </c>
+      <c r="O67" t="s">
+        <v>167</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>529</v>
+      </c>
+      <c r="X67" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>538</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>539</v>
+      </c>
+      <c r="J68" t="s">
+        <v>540</v>
+      </c>
+      <c r="K68" t="s">
+        <v>541</v>
+      </c>
+      <c r="L68" t="s">
+        <v>542</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>543</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>529</v>
+      </c>
+      <c r="X68" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>545</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>546</v>
+      </c>
+      <c r="J69" t="s">
+        <v>547</v>
+      </c>
+      <c r="K69" t="s">
+        <v>548</v>
+      </c>
+      <c r="L69" t="s">
+        <v>549</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>529</v>
+      </c>
+      <c r="X69" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>551</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>552</v>
+      </c>
+      <c r="J70" t="s">
+        <v>553</v>
+      </c>
+      <c r="K70" t="s">
+        <v>554</v>
+      </c>
+      <c r="L70" t="s">
+        <v>555</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>505</v>
+      </c>
+      <c r="X70" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>557</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>558</v>
+      </c>
+      <c r="J71" t="s">
+        <v>559</v>
+      </c>
+      <c r="K71" t="s">
+        <v>560</v>
+      </c>
+      <c r="L71" t="s">
+        <v>561</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>562</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>505</v>
+      </c>
+      <c r="X71" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>564</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>565</v>
+      </c>
+      <c r="J72" t="s">
+        <v>566</v>
+      </c>
+      <c r="K72" t="s">
+        <v>567</v>
+      </c>
+      <c r="L72" t="s">
+        <v>568</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>569</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>571</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>572</v>
+      </c>
+      <c r="J73" t="s">
+        <v>573</v>
+      </c>
+      <c r="K73" t="s">
+        <v>574</v>
+      </c>
+      <c r="L73" t="s">
+        <v>575</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>576</v>
+      </c>
+      <c r="O73" t="s">
+        <v>167</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>364</v>
+      </c>
+      <c r="X73" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>578</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>579</v>
+      </c>
+      <c r="J74" t="s">
+        <v>580</v>
+      </c>
+      <c r="K74" t="s">
+        <v>581</v>
+      </c>
+      <c r="L74" t="s">
+        <v>582</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>583</v>
+      </c>
+      <c r="O74" t="s">
+        <v>167</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>513</v>
+      </c>
+      <c r="X74" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>585</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>586</v>
+      </c>
+      <c r="J75" t="s">
+        <v>587</v>
+      </c>
+      <c r="K75" t="s">
+        <v>588</v>
+      </c>
+      <c r="L75" t="s">
+        <v>589</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>590</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>513</v>
+      </c>
+      <c r="X75" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>592</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>593</v>
+      </c>
+      <c r="J76" t="s">
+        <v>594</v>
+      </c>
+      <c r="K76" t="s">
+        <v>595</v>
+      </c>
+      <c r="L76" t="s">
+        <v>596</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>590</v>
+      </c>
+      <c r="O76" t="s">
+        <v>111</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>513</v>
+      </c>
+      <c r="X76" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>598</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>599</v>
+      </c>
+      <c r="J77" t="s">
+        <v>600</v>
+      </c>
+      <c r="K77" t="s">
+        <v>601</v>
+      </c>
+      <c r="L77" t="s">
+        <v>602</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>603</v>
+      </c>
+      <c r="O77" t="s">
+        <v>111</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>604</v>
+      </c>
+      <c r="X77" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>607</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>608</v>
+      </c>
+      <c r="J78" t="s">
+        <v>609</v>
+      </c>
+      <c r="K78" t="s">
+        <v>610</v>
+      </c>
+      <c r="L78" t="s">
+        <v>611</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>603</v>
+      </c>
+      <c r="O78" t="s">
+        <v>101</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>613</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>614</v>
+      </c>
+      <c r="J79" t="s">
+        <v>615</v>
+      </c>
+      <c r="K79" t="s">
+        <v>616</v>
+      </c>
+      <c r="L79" t="s">
+        <v>617</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>603</v>
+      </c>
+      <c r="O79" t="s">
+        <v>101</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>618</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>619</v>
+      </c>
+      <c r="J80" t="s">
+        <v>620</v>
+      </c>
+      <c r="K80" t="s">
+        <v>621</v>
+      </c>
+      <c r="L80" t="s">
+        <v>622</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s">
+        <v>623</v>
+      </c>
+      <c r="O80" t="s">
+        <v>167</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>625</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>626</v>
+      </c>
+      <c r="J81" t="s">
+        <v>627</v>
+      </c>
+      <c r="K81" t="s">
+        <v>628</v>
+      </c>
+      <c r="L81" t="s">
+        <v>629</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>631</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>632</v>
+      </c>
+      <c r="J82" t="s">
+        <v>633</v>
+      </c>
+      <c r="K82" t="s">
+        <v>634</v>
+      </c>
+      <c r="L82" t="s">
+        <v>635</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>623</v>
+      </c>
+      <c r="O82" t="s">
+        <v>167</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>637</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>638</v>
+      </c>
+      <c r="J83" t="s">
+        <v>639</v>
+      </c>
+      <c r="K83" t="s">
+        <v>640</v>
+      </c>
+      <c r="L83" t="s">
+        <v>641</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>642</v>
+      </c>
+      <c r="O83" t="s">
+        <v>101</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>643</v>
+      </c>
+      <c r="X83" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>646</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>647</v>
+      </c>
+      <c r="J84" t="s">
+        <v>648</v>
+      </c>
+      <c r="K84" t="s">
+        <v>649</v>
+      </c>
+      <c r="L84" t="s">
+        <v>650</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>651</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>604</v>
+      </c>
+      <c r="X84" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>56492</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>653</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>654</v>
+      </c>
+      <c r="J85" t="s">
+        <v>655</v>
+      </c>
+      <c r="K85" t="s">
+        <v>656</v>
+      </c>
+      <c r="L85" t="s">
+        <v>657</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>604</v>
+      </c>
+      <c r="X85" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>658</v>
       </c>
     </row>
   </sheetData>
